--- a/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72012B00-28CB-9D42-A685-01068EC7C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38187E58-07A6-7046-BAC6-A03885D6B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="1" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="122">
   <si>
     <t>OEKS15 ensemble member</t>
   </si>
@@ -307,6 +307,102 @@
   </si>
   <si>
     <t>2071-2090</t>
+  </si>
+  <si>
+    <t>2023-2042</t>
+  </si>
+  <si>
+    <t>2014-2033</t>
+  </si>
+  <si>
+    <t>2026-2045</t>
+  </si>
+  <si>
+    <t>2003-2022</t>
+  </si>
+  <si>
+    <t>2010-2029</t>
+  </si>
+  <si>
+    <t>2007-2026</t>
+  </si>
+  <si>
+    <t>2002-2021</t>
+  </si>
+  <si>
+    <t>2037-2056</t>
+  </si>
+  <si>
+    <t>2004-2023</t>
+  </si>
+  <si>
+    <t>2008-2027</t>
+  </si>
+  <si>
+    <t>2027-2046</t>
+  </si>
+  <si>
+    <t>2069-2088</t>
+  </si>
+  <si>
+    <t>1999-2018</t>
+  </si>
+  <si>
+    <t>2005-2024</t>
+  </si>
+  <si>
+    <t>2050-2069</t>
+  </si>
+  <si>
+    <t>2009-2028</t>
+  </si>
+  <si>
+    <t>2074-2093</t>
+  </si>
+  <si>
+    <t>2034-2053</t>
+  </si>
+  <si>
+    <t>2062-2081</t>
+  </si>
+  <si>
+    <t>2006-2025</t>
+  </si>
+  <si>
+    <t>2075-2094</t>
+  </si>
+  <si>
+    <t>2054-2073</t>
+  </si>
+  <si>
+    <t>2079-2098</t>
+  </si>
+  <si>
+    <t>2038-2057</t>
+  </si>
+  <si>
+    <t>2053-2072</t>
+  </si>
+  <si>
+    <t>Mean year per GWL (median)</t>
+  </si>
+  <si>
+    <t>Mean year per GWL (p10)</t>
+  </si>
+  <si>
+    <t>2068-2087</t>
+  </si>
+  <si>
+    <t>2072-2091</t>
+  </si>
+  <si>
+    <t>2081-2100</t>
+  </si>
+  <si>
+    <t>difference median - p10</t>
+  </si>
+  <si>
+    <t>difference p90 - median</t>
   </si>
 </sst>
 </file>
@@ -336,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,21 +455,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,23 +1292,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4599D-34AE-794F-94E5-BAFC365E1CD1}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AV25" sqref="AV25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="61" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="55" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1162,8 +1323,53 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1189,13 +1395,136 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>2033</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>Y3</f>
+        <v>SDM_ICHEC-EC-EARTH_rcp26_r12i1p1_CLMcom-CCLM4-8-17_all</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>IF(B3-N3 &gt; 0, B3-N3, "")</f>
+        <v/>
+      </c>
+      <c r="AM3" t="str">
+        <f>IF(C3-O3 &gt; 0, C3-O3, "")</f>
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <f>IF(D3-P3 &gt; 0, D3-P3, "")</f>
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <f>IF(E3-Q3 &gt; 0, E3-Q3, "")</f>
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <f>IF(Z3-B3 &gt; 0, Z3-B3, "")</f>
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" ref="AQ3:AS3" si="0">IF(AA3-C3 &gt; 0, AA3-C3, "")</f>
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1205,8 +1534,62 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>2024</v>
+      </c>
+      <c r="O4">
+        <v>2050</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" ref="AK4:AK38" si="1">Y4</f>
+        <v>SDM_ICHEC-EC-EARTH_rcp26_r12i1p1_KNMI-RACMO22E_all</v>
+      </c>
+      <c r="AL4">
+        <f>IF(B4-N4 &gt; 0, B4-N4, "")</f>
+        <v>26</v>
+      </c>
+      <c r="AM4" t="str">
+        <f>IF(C4-O4 &gt; 0, C4-O4, "")</f>
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <f>IF(D4-P4 &gt; 0, D4-P4, "")</f>
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <f>IF(E4-Q4 &gt; 0, E4-Q4, "")</f>
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" ref="AP4:AP36" si="2">IF(Z4-B4 &gt; 0, Z4-B4, "")</f>
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" ref="AQ4:AQ36" si="3">IF(AA4-C4 &gt; 0, AA4-C4, "")</f>
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <f t="shared" ref="AR4:AR36" si="4">IF(AB4-D4 &gt; 0, AB4-D4, "")</f>
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <f t="shared" ref="AS4:AS36" si="5">IF(AC4-E4 &gt; 0, AC4-E4, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1216,13 +1599,115 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>2022</v>
+      </c>
+      <c r="O5">
+        <v>2036</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp26_r12i1p1_SMHI-RCA4_all</v>
+      </c>
+      <c r="AL5">
+        <f>IF(B5-N5 &gt; 0, B5-N5, "")</f>
+        <v>17</v>
+      </c>
+      <c r="AM5" t="str">
+        <f>IF(C5-O5 &gt; 0, C5-O5, "")</f>
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <f>IF(D5-P5 &gt; 0, D5-P5, "")</f>
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <f>IF(E5-Q5 &gt; 0, E5-Q5, "")</f>
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>2033</v>
+      </c>
+      <c r="R6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp26_r3i1p1_DMI-HIRHAM5_all</v>
+      </c>
+      <c r="AL6" t="str">
+        <f>IF(B6-N6 &gt; 0, B6-N6, "")</f>
+        <v/>
+      </c>
+      <c r="AM6" t="str">
+        <f>IF(C6-O6 &gt; 0, C6-O6, "")</f>
+        <v/>
+      </c>
+      <c r="AN6" t="str">
+        <f>IF(D6-P6 &gt; 0, D6-P6, "")</f>
+        <v/>
+      </c>
+      <c r="AO6" t="str">
+        <f>IF(E6-Q6 &gt; 0, E6-Q6, "")</f>
+        <v/>
+      </c>
+      <c r="AP6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +1723,68 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>2013</v>
+      </c>
+      <c r="O7">
+        <v>2020</v>
+      </c>
+      <c r="R7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7">
+        <v>2053</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MOHC-HadGEM2-ES_rcp26_r1i1p1_SMHI-RCA4_all</v>
+      </c>
+      <c r="AL7">
+        <f>IF(B7-N7 &gt; 0, B7-N7, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AM7">
+        <f>IF(C7-O7 &gt; 0, C7-O7, "")</f>
+        <v>34</v>
+      </c>
+      <c r="AN7" t="str">
+        <f>IF(D7-P7 &gt; 0, D7-P7, "")</f>
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <f>IF(E7-Q7 &gt; 0, E7-Q7, "")</f>
+        <v/>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1249,8 +1794,62 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>2022</v>
+      </c>
+      <c r="O8">
+        <v>2039</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp26_r1i1p1_MPI-CSC-REMO2009_all</v>
+      </c>
+      <c r="AL8">
+        <f>IF(B8-N8 &gt; 0, B8-N8, "")</f>
+        <v>17</v>
+      </c>
+      <c r="AM8" t="str">
+        <f>IF(C8-O8 &gt; 0, C8-O8, "")</f>
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <f>IF(D8-P8 &gt; 0, D8-P8, "")</f>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f>IF(E8-Q8 &gt; 0, E8-Q8, "")</f>
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1260,13 +1859,121 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>2017</v>
+      </c>
+      <c r="O9">
+        <v>2026</v>
+      </c>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9">
+        <v>2039</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp26_r1i1p1_SMHI-RCA4_all</v>
+      </c>
+      <c r="AL9">
+        <f>IF(B9-N9 &gt; 0, B9-N9, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AM9" t="str">
+        <f>IF(C9-O9 &gt; 0, C9-O9, "")</f>
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <f>IF(D9-P9 &gt; 0, D9-P9, "")</f>
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <f>IF(E9-Q9 &gt; 0, E9-Q9, "")</f>
+        <v/>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>2012</v>
+      </c>
+      <c r="R10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp26_r2i1p1_MPI-CSC-REMO2009_all</v>
+      </c>
+      <c r="AL10" t="str">
+        <f>IF(B10-N10 &gt; 0, B10-N10, "")</f>
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <f>IF(C10-O10 &gt; 0, C10-O10, "")</f>
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <f>IF(D10-P10 &gt; 0, D10-P10, "")</f>
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <f>IF(E10-Q10 &gt; 0, E10-Q10, "")</f>
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1282,8 +1989,68 @@
       <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>2033</v>
+      </c>
+      <c r="O11">
+        <v>2055</v>
+      </c>
+      <c r="R11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>2065</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp45_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL11">
+        <f>IF(B11-N11 &gt; 0, B11-N11, "")</f>
+        <v>22</v>
+      </c>
+      <c r="AM11">
+        <f>IF(C11-O11 &gt; 0, C11-O11, "")</f>
+        <v>21</v>
+      </c>
+      <c r="AN11" t="str">
+        <f>IF(D11-P11 &gt; 0, D11-P11, "")</f>
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <f>IF(E11-Q11 &gt; 0, E11-Q11, "")</f>
+        <v/>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1299,8 +2066,68 @@
       <c r="G12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <v>2013</v>
+      </c>
+      <c r="O12">
+        <v>2049</v>
+      </c>
+      <c r="R12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <v>2057</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp45_r1i1p1_CNRM-ALADIN53</v>
+      </c>
+      <c r="AL12">
+        <f>IF(B12-N12 &gt; 0, B12-N12, "")</f>
+        <v>36</v>
+      </c>
+      <c r="AM12">
+        <f>IF(C12-O12 &gt; 0, C12-O12, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AN12" t="str">
+        <f>IF(D12-P12 &gt; 0, D12-P12, "")</f>
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <f>IF(E12-Q12 &gt; 0, E12-Q12, "")</f>
+        <v/>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1316,8 +2143,68 @@
       <c r="G13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>2013</v>
+      </c>
+      <c r="O13">
+        <v>2046</v>
+      </c>
+      <c r="R13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13">
+        <v>2056</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp45_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL13">
+        <f>IF(B13-N13 &gt; 0, B13-N13, "")</f>
+        <v>33</v>
+      </c>
+      <c r="AM13">
+        <f>IF(C13-O13 &gt; 0, C13-O13, "")</f>
+        <v>11</v>
+      </c>
+      <c r="AN13" t="str">
+        <f>IF(D13-P13 &gt; 0, D13-P13, "")</f>
+        <v/>
+      </c>
+      <c r="AO13" t="str">
+        <f>IF(E13-Q13 &gt; 0, E13-Q13, "")</f>
+        <v/>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1333,8 +2220,68 @@
       <c r="G14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>2021</v>
+      </c>
+      <c r="O14">
+        <v>2047</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14">
+        <v>2057</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp45_r12i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL14">
+        <f>IF(B14-N14 &gt; 0, B14-N14, "")</f>
+        <v>29</v>
+      </c>
+      <c r="AM14">
+        <f>IF(C14-O14 &gt; 0, C14-O14, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AN14" t="str">
+        <f>IF(D14-P14 &gt; 0, D14-P14, "")</f>
+        <v/>
+      </c>
+      <c r="AO14" t="str">
+        <f>IF(E14-Q14 &gt; 0, E14-Q14, "")</f>
+        <v/>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1350,8 +2297,80 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>2014</v>
+      </c>
+      <c r="O15">
+        <v>2032</v>
+      </c>
+      <c r="P15">
+        <v>2076</v>
+      </c>
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15">
+        <v>2051</v>
+      </c>
+      <c r="AA15">
+        <v>2078</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp45_r12i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL15">
+        <f>IF(B15-N15 &gt; 0, B15-N15, "")</f>
+        <v>18</v>
+      </c>
+      <c r="AM15">
+        <f>IF(C15-O15 &gt; 0, C15-O15, "")</f>
+        <v>20</v>
+      </c>
+      <c r="AN15" t="str">
+        <f>IF(D15-P15 &gt; 0, D15-P15, "")</f>
+        <v/>
+      </c>
+      <c r="AO15" t="str">
+        <f>IF(E15-Q15 &gt; 0, E15-Q15, "")</f>
+        <v/>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AR15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1367,8 +2386,80 @@
       <c r="G16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>2018</v>
+      </c>
+      <c r="O16">
+        <v>2031</v>
+      </c>
+      <c r="P16">
+        <v>2076</v>
+      </c>
+      <c r="R16" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16">
+        <v>2065</v>
+      </c>
+      <c r="AA16">
+        <v>2082</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp45_r1i1p1_KNMI-RACMO22E</v>
+      </c>
+      <c r="AL16">
+        <f>IF(B16-N16 &gt; 0, B16-N16, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM16">
+        <f>IF(C16-O16 &gt; 0, C16-O16, "")</f>
+        <v>34</v>
+      </c>
+      <c r="AN16" t="str">
+        <f>IF(D16-P16 &gt; 0, D16-P16, "")</f>
+        <v/>
+      </c>
+      <c r="AO16" t="str">
+        <f>IF(E16-Q16 &gt; 0, E16-Q16, "")</f>
+        <v/>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AR16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1384,8 +2475,68 @@
       <c r="G17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>2025</v>
+      </c>
+      <c r="O17">
+        <v>2038</v>
+      </c>
+      <c r="R17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17">
+        <v>2071</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp45_r3i1p1_DMI-HIRHAM5</v>
+      </c>
+      <c r="AL17">
+        <f>IF(B17-N17 &gt; 0, B17-N17, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM17">
+        <f>IF(C17-O17 &gt; 0, C17-O17, "")</f>
+        <v>35</v>
+      </c>
+      <c r="AN17" t="str">
+        <f>IF(D17-P17 &gt; 0, D17-P17, "")</f>
+        <v/>
+      </c>
+      <c r="AO17" t="str">
+        <f>IF(E17-Q17 &gt; 0, E17-Q17, "")</f>
+        <v/>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1401,8 +2552,74 @@
       <c r="G18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>2026</v>
+      </c>
+      <c r="O18">
+        <v>2037</v>
+      </c>
+      <c r="P18">
+        <v>2079</v>
+      </c>
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18">
+        <v>2069</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_IPSL-IPSL-CM5A-MR_rcp45_r1i1p1_IPSL-INERIS-WRF331F</v>
+      </c>
+      <c r="AL18">
+        <f>IF(B18-N18 &gt; 0, B18-N18, "")</f>
+        <v>12</v>
+      </c>
+      <c r="AM18">
+        <f>IF(C18-O18 &gt; 0, C18-O18, "")</f>
+        <v>33</v>
+      </c>
+      <c r="AN18" t="str">
+        <f>IF(D18-P18 &gt; 0, D18-P18, "")</f>
+        <v/>
+      </c>
+      <c r="AO18" t="str">
+        <f>IF(E18-Q18 &gt; 0, E18-Q18, "")</f>
+        <v/>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1418,8 +2635,80 @@
       <c r="G19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>2009</v>
+      </c>
+      <c r="O19">
+        <v>2036</v>
+      </c>
+      <c r="P19">
+        <v>2070</v>
+      </c>
+      <c r="R19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19">
+        <v>2047</v>
+      </c>
+      <c r="AA19">
+        <v>2071</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_IPSL-IPSL-CM5A-MR_rcp45_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL19">
+        <f>IF(B19-N19 &gt; 0, B19-N19, "")</f>
+        <v>29</v>
+      </c>
+      <c r="AM19">
+        <f>IF(C19-O19 &gt; 0, C19-O19, "")</f>
+        <v>20</v>
+      </c>
+      <c r="AN19" t="str">
+        <f>IF(D19-P19 &gt; 0, D19-P19, "")</f>
+        <v/>
+      </c>
+      <c r="AO19" t="str">
+        <f>IF(E19-Q19 &gt; 0, E19-Q19, "")</f>
+        <v/>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AR19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1441,8 +2730,80 @@
       <c r="H20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20">
+        <v>2015</v>
+      </c>
+      <c r="O20">
+        <v>2025</v>
+      </c>
+      <c r="P20">
+        <v>2052</v>
+      </c>
+      <c r="R20" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20">
+        <v>2039</v>
+      </c>
+      <c r="AA20">
+        <v>2053</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MOHC-HadGEM2-ES_rcp45_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL20">
+        <f>IF(B20-N20 &gt; 0, B20-N20, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <f>IF(C20-O20 &gt; 0, C20-O20, "")</f>
+        <v>16</v>
+      </c>
+      <c r="AN20">
+        <f>IF(D20-P20 &gt; 0, D20-P20, "")</f>
+        <v>17</v>
+      </c>
+      <c r="AO20" t="str">
+        <f>IF(E20-Q20 &gt; 0, E20-Q20, "")</f>
+        <v/>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AR20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1464,8 +2825,80 @@
       <c r="H21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21">
+        <v>2012</v>
+      </c>
+      <c r="O21">
+        <v>2027</v>
+      </c>
+      <c r="P21">
+        <v>2060</v>
+      </c>
+      <c r="R21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21">
+        <v>2039</v>
+      </c>
+      <c r="AA21">
+        <v>2061</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MOHC-HadGEM2-ES_rcp45_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL21">
+        <f>IF(B21-N21 &gt; 0, B21-N21, "")</f>
+        <v>15</v>
+      </c>
+      <c r="AM21">
+        <f>IF(C21-O21 &gt; 0, C21-O21, "")</f>
+        <v>16</v>
+      </c>
+      <c r="AN21">
+        <f>IF(D21-P21 &gt; 0, D21-P21, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AO21" t="str">
+        <f>IF(E21-Q21 &gt; 0, E21-Q21, "")</f>
+        <v/>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AR21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1481,8 +2914,68 @@
       <c r="G22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22">
+        <v>2026</v>
+      </c>
+      <c r="O22">
+        <v>2038</v>
+      </c>
+      <c r="R22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22">
+        <v>2084</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK22" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp45_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL22">
+        <f>IF(B22-N22 &gt; 0, B22-N22, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM22">
+        <f>IF(C22-O22 &gt; 0, C22-O22, "")</f>
+        <v>52</v>
+      </c>
+      <c r="AN22" t="str">
+        <f>IF(D22-P22 &gt; 0, D22-P22, "")</f>
+        <v/>
+      </c>
+      <c r="AO22" t="str">
+        <f>IF(E22-Q22 &gt; 0, E22-Q22, "")</f>
+        <v/>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1498,8 +2991,68 @@
       <c r="G23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23">
+        <v>2021</v>
+      </c>
+      <c r="O23">
+        <v>2032</v>
+      </c>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z23">
+        <v>2068</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK23" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp45_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL23">
+        <f>IF(B23-N23 &gt; 0, B23-N23, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM23">
+        <f>IF(C23-O23 &gt; 0, C23-O23, "")</f>
+        <v>38</v>
+      </c>
+      <c r="AN23" t="str">
+        <f>IF(D23-P23 &gt; 0, D23-P23, "")</f>
+        <v/>
+      </c>
+      <c r="AO23" t="str">
+        <f>IF(E23-Q23 &gt; 0, E23-Q23, "")</f>
+        <v/>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AQ23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AS23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1521,8 +3074,92 @@
       <c r="H24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>2028</v>
+      </c>
+      <c r="O24">
+        <v>2042</v>
+      </c>
+      <c r="P24">
+        <v>2066</v>
+      </c>
+      <c r="Q24">
+        <v>2087</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24">
+        <v>2054</v>
+      </c>
+      <c r="AA24">
+        <v>2066</v>
+      </c>
+      <c r="AB24">
+        <v>2087</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp85_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL24">
+        <f>IF(B24-N24 &gt; 0, B24-N24, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AM24">
+        <f>IF(C24-O24 &gt; 0, C24-O24, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AN24">
+        <f>IF(D24-P24 &gt; 0, D24-P24, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AO24" t="str">
+        <f>IF(E24-Q24 &gt; 0, E24-Q24, "")</f>
+        <v/>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AS24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1550,8 +3187,92 @@
       <c r="I25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25">
+        <v>2019</v>
+      </c>
+      <c r="O25">
+        <v>2037</v>
+      </c>
+      <c r="P25">
+        <v>2056</v>
+      </c>
+      <c r="Q25">
+        <v>2077</v>
+      </c>
+      <c r="R25" t="s">
+        <v>105</v>
+      </c>
+      <c r="S25" t="s">
+        <v>100</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25">
+        <v>2047</v>
+      </c>
+      <c r="AA25">
+        <v>2056</v>
+      </c>
+      <c r="AB25">
+        <v>2077</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK25" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp85_r1i1p1_CNRM-ALADIN53</v>
+      </c>
+      <c r="AL25">
+        <f>IF(B25-N25 &gt; 0, B25-N25, "")</f>
+        <v>19</v>
+      </c>
+      <c r="AM25">
+        <f>IF(C25-O25 &gt; 0, C25-O25, "")</f>
+        <v>12</v>
+      </c>
+      <c r="AN25">
+        <f>IF(D25-P25 &gt; 0, D25-P25, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AO25">
+        <f>IF(E25-Q25 &gt; 0, E25-Q25, "")</f>
+        <v>6</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AS25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1579,8 +3300,98 @@
       <c r="I26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>2019</v>
+      </c>
+      <c r="O26">
+        <v>2032</v>
+      </c>
+      <c r="P26">
+        <v>2054</v>
+      </c>
+      <c r="Q26">
+        <v>2071</v>
+      </c>
+      <c r="R26" t="s">
+        <v>105</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26">
+        <v>2043</v>
+      </c>
+      <c r="AA26">
+        <v>2055</v>
+      </c>
+      <c r="AB26">
+        <v>2070</v>
+      </c>
+      <c r="AC26">
+        <v>2090</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_CNRM-CERFACS-CNRM-CM5_rcp85_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL26">
+        <f>IF(B26-N26 &gt; 0, B26-N26, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM26">
+        <f>IF(C26-O26 &gt; 0, C26-O26, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AN26">
+        <f>IF(D26-P26 &gt; 0, D26-P26, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AO26">
+        <f>IF(E26-Q26 &gt; 0, E26-Q26, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1608,8 +3419,92 @@
       <c r="I27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>2025</v>
+      </c>
+      <c r="O27">
+        <v>2040</v>
+      </c>
+      <c r="P27">
+        <v>2069</v>
+      </c>
+      <c r="Q27">
+        <v>2084</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>67</v>
+      </c>
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27">
+        <v>2049</v>
+      </c>
+      <c r="AA27">
+        <v>2070</v>
+      </c>
+      <c r="AB27">
+        <v>2084</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK27" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp85_r12i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL27">
+        <f>IF(B27-N27 &gt; 0, B27-N27, "")</f>
+        <v>16</v>
+      </c>
+      <c r="AM27">
+        <f>IF(C27-O27 &gt; 0, C27-O27, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AN27">
+        <f>IF(D27-P27 &gt; 0, D27-P27, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AO27">
+        <f>IF(E27-Q27 &gt; 0, E27-Q27, "")</f>
+        <v>6</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AS27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1637,8 +3532,98 @@
       <c r="I28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28">
+        <v>2014</v>
+      </c>
+      <c r="O28">
+        <v>2028</v>
+      </c>
+      <c r="P28">
+        <v>2044</v>
+      </c>
+      <c r="Q28">
+        <v>2072</v>
+      </c>
+      <c r="R28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z28">
+        <v>2037</v>
+      </c>
+      <c r="AA28">
+        <v>2047</v>
+      </c>
+      <c r="AB28">
+        <v>2072</v>
+      </c>
+      <c r="AC28">
+        <v>2085</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK28" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp85_r12i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL28">
+        <f>IF(B28-N28 &gt; 0, B28-N28, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AM28">
+        <f>IF(C28-O28 &gt; 0, C28-O28, "")</f>
+        <v>12</v>
+      </c>
+      <c r="AN28">
+        <f>IF(D28-P28 &gt; 0, D28-P28, "")</f>
+        <v>15</v>
+      </c>
+      <c r="AO28">
+        <f>IF(E28-Q28 &gt; 0, E28-Q28, "")</f>
+        <v>5</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1666,8 +3651,92 @@
       <c r="I29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29">
+        <v>2017</v>
+      </c>
+      <c r="O29">
+        <v>2030</v>
+      </c>
+      <c r="P29">
+        <v>2066</v>
+      </c>
+      <c r="Q29">
+        <v>2080</v>
+      </c>
+      <c r="R29" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" t="s">
+        <v>70</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z29">
+        <v>2057</v>
+      </c>
+      <c r="AA29">
+        <v>2066</v>
+      </c>
+      <c r="AB29">
+        <v>2080</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp85_r1i1p1_KNMI-RACMO22E</v>
+      </c>
+      <c r="AL29">
+        <f>IF(B29-N29 &gt; 0, B29-N29, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM29">
+        <f>IF(C29-O29 &gt; 0, C29-O29, "")</f>
+        <v>28</v>
+      </c>
+      <c r="AN29">
+        <f>IF(D29-P29 &gt; 0, D29-P29, "")</f>
+        <v>7</v>
+      </c>
+      <c r="AO29">
+        <f>IF(E29-Q29 &gt; 0, E29-Q29, "")</f>
+        <v>7</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AS29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1689,8 +3758,92 @@
       <c r="H30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30">
+        <v>2016</v>
+      </c>
+      <c r="O30">
+        <v>2029</v>
+      </c>
+      <c r="P30">
+        <v>2068</v>
+      </c>
+      <c r="Q30">
+        <v>2085</v>
+      </c>
+      <c r="R30" t="s">
+        <v>109</v>
+      </c>
+      <c r="S30" t="s">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s">
+        <v>88</v>
+      </c>
+      <c r="U30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z30">
+        <v>2045</v>
+      </c>
+      <c r="AA30">
+        <v>2069</v>
+      </c>
+      <c r="AB30">
+        <v>2085</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK30" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_ICHEC-EC-EARTH_rcp85_r3i1p1_DMI-HIRHAM5</v>
+      </c>
+      <c r="AL30">
+        <f>IF(B30-N30 &gt; 0, B30-N30, "")</f>
+        <v>13</v>
+      </c>
+      <c r="AM30">
+        <f>IF(C30-O30 &gt; 0, C30-O30, "")</f>
+        <v>25</v>
+      </c>
+      <c r="AN30">
+        <f>IF(D30-P30 &gt; 0, D30-P30, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AO30" t="str">
+        <f>IF(E30-Q30 &gt; 0, E30-Q30, "")</f>
+        <v/>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AS30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1712,8 +3865,92 @@
       <c r="H31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31">
+        <v>2012</v>
+      </c>
+      <c r="O31">
+        <v>2050</v>
+      </c>
+      <c r="P31">
+        <v>2064</v>
+      </c>
+      <c r="Q31">
+        <v>2089</v>
+      </c>
+      <c r="R31" t="s">
+        <v>96</v>
+      </c>
+      <c r="S31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" t="s">
+        <v>111</v>
+      </c>
+      <c r="U31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z31">
+        <v>2057</v>
+      </c>
+      <c r="AA31">
+        <v>2064</v>
+      </c>
+      <c r="AB31">
+        <v>2089</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK31" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_IPSL-IPSL-CM5A-MR_rcp85_r1i1p1_IPSL-INERIS-WRF331F</v>
+      </c>
+      <c r="AL31">
+        <f>IF(B31-N31 &gt; 0, B31-N31, "")</f>
+        <v>39</v>
+      </c>
+      <c r="AM31">
+        <f>IF(C31-O31 &gt; 0, C31-O31, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AN31">
+        <f>IF(D31-P31 &gt; 0, D31-P31, "")</f>
+        <v>12</v>
+      </c>
+      <c r="AO31" t="str">
+        <f>IF(E31-Q31 &gt; 0, E31-Q31, "")</f>
+        <v/>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AS31" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1741,8 +3978,98 @@
       <c r="I32" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32">
+        <v>2012</v>
+      </c>
+      <c r="O32">
+        <v>2035</v>
+      </c>
+      <c r="P32">
+        <v>2049</v>
+      </c>
+      <c r="Q32">
+        <v>2064</v>
+      </c>
+      <c r="R32" t="s">
+        <v>96</v>
+      </c>
+      <c r="S32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z32">
+        <v>2042</v>
+      </c>
+      <c r="AA32">
+        <v>2050</v>
+      </c>
+      <c r="AB32">
+        <v>2064</v>
+      </c>
+      <c r="AC32">
+        <v>2078</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK32" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_IPSL-IPSL-CM5A-MR_rcp85_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL32">
+        <f>IF(B32-N32 &gt; 0, B32-N32, "")</f>
+        <v>23</v>
+      </c>
+      <c r="AM32">
+        <f>IF(C32-O32 &gt; 0, C32-O32, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AN32">
+        <f>IF(D32-P32 &gt; 0, D32-P32, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AO32">
+        <f>IF(E32-Q32 &gt; 0, E32-Q32, "")</f>
+        <v>7</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1770,8 +4097,98 @@
       <c r="I33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33">
+        <v>2012</v>
+      </c>
+      <c r="O33">
+        <v>2019</v>
+      </c>
+      <c r="P33">
+        <v>2046</v>
+      </c>
+      <c r="Q33">
+        <v>2062</v>
+      </c>
+      <c r="R33" t="s">
+        <v>96</v>
+      </c>
+      <c r="S33" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z33">
+        <v>2032</v>
+      </c>
+      <c r="AA33">
+        <v>2047</v>
+      </c>
+      <c r="AB33">
+        <v>2062</v>
+      </c>
+      <c r="AC33">
+        <v>2076</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK33" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MOHC-HadGEM2-ES_rcp85_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL33">
+        <f>IF(B33-N33 &gt; 0, B33-N33, "")</f>
+        <v>11</v>
+      </c>
+      <c r="AM33">
+        <f>IF(C33-O33 &gt; 0, C33-O33, "")</f>
+        <v>15</v>
+      </c>
+      <c r="AN33">
+        <f>IF(D33-P33 &gt; 0, D33-P33, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AO33">
+        <f>IF(E33-Q33 &gt; 0, E33-Q33, "")</f>
+        <v>5</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1799,8 +4216,98 @@
       <c r="I34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34">
+        <v>2012</v>
+      </c>
+      <c r="O34">
+        <v>2019</v>
+      </c>
+      <c r="P34">
+        <v>2048</v>
+      </c>
+      <c r="Q34">
+        <v>2065</v>
+      </c>
+      <c r="R34" t="s">
+        <v>96</v>
+      </c>
+      <c r="S34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T34" t="s">
+        <v>113</v>
+      </c>
+      <c r="U34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z34">
+        <v>2033</v>
+      </c>
+      <c r="AA34">
+        <v>2048</v>
+      </c>
+      <c r="AB34">
+        <v>2065</v>
+      </c>
+      <c r="AC34">
+        <v>2077</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK34" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MOHC-HadGEM2-ES_rcp85_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL34">
+        <f>IF(B34-N34 &gt; 0, B34-N34, "")</f>
+        <v>10</v>
+      </c>
+      <c r="AM34">
+        <f>IF(C34-O34 &gt; 0, C34-O34, "")</f>
+        <v>15</v>
+      </c>
+      <c r="AN34">
+        <f>IF(D34-P34 &gt; 0, D34-P34, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AO34">
+        <f>IF(E34-Q34 &gt; 0, E34-Q34, "")</f>
+        <v>5</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1822,8 +4329,92 @@
       <c r="H35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35">
+        <v>2018</v>
+      </c>
+      <c r="O35">
+        <v>2044</v>
+      </c>
+      <c r="P35">
+        <v>2063</v>
+      </c>
+      <c r="Q35">
+        <v>2085</v>
+      </c>
+      <c r="R35" t="s">
+        <v>99</v>
+      </c>
+      <c r="S35" t="s">
+        <v>107</v>
+      </c>
+      <c r="T35" t="s">
+        <v>114</v>
+      </c>
+      <c r="U35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z35">
+        <v>2051</v>
+      </c>
+      <c r="AA35">
+        <v>2063</v>
+      </c>
+      <c r="AB35">
+        <v>2085</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK35" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp85_r1i1p1_CLMcom-CCLM4-8-17</v>
+      </c>
+      <c r="AL35">
+        <f>IF(B35-N35 &gt; 0, B35-N35, "")</f>
+        <v>27</v>
+      </c>
+      <c r="AM35">
+        <f>IF(C35-O35 &gt; 0, C35-O35, "")</f>
+        <v>9</v>
+      </c>
+      <c r="AN35">
+        <f>IF(D35-P35 &gt; 0, D35-P35, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AO35" t="str">
+        <f>IF(E35-Q35 &gt; 0, E35-Q35, "")</f>
+        <v/>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AS35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1851,12 +4442,132 @@
       <c r="I36" t="s">
         <v>89</v>
       </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36">
+        <v>2020</v>
+      </c>
+      <c r="O36">
+        <v>2036</v>
+      </c>
+      <c r="P36">
+        <v>2060</v>
+      </c>
+      <c r="Q36">
+        <v>2076</v>
+      </c>
+      <c r="R36" t="s">
+        <v>94</v>
+      </c>
+      <c r="S36" t="s">
+        <v>92</v>
+      </c>
+      <c r="T36" t="s">
+        <v>104</v>
+      </c>
+      <c r="U36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z36">
+        <v>2048</v>
+      </c>
+      <c r="AA36">
+        <v>2060</v>
+      </c>
+      <c r="AB36">
+        <v>2076</v>
+      </c>
+      <c r="AC36">
+        <v>2091</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK36" t="str">
+        <f t="shared" si="1"/>
+        <v>SDM_MPI-M-MPI-ESM-LR_rcp85_r1i1p1_SMHI-RCA4</v>
+      </c>
+      <c r="AL36">
+        <f>IF(B36-N36 &gt; 0, B36-N36, "")</f>
+        <v>18</v>
+      </c>
+      <c r="AM36">
+        <f>IF(C36-O36 &gt; 0, C36-O36, "")</f>
+        <v>14</v>
+      </c>
+      <c r="AN36">
+        <f>IF(D36-P36 &gt; 0, D36-P36, "")</f>
+        <v>8</v>
+      </c>
+      <c r="AO36">
+        <f>IF(E36-Q36 &gt; 0, E36-Q36, "")</f>
+        <v>5</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
+  <conditionalFormatting sqref="AL3:AS36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP3:AS36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCEB193-D7DF-B245-913C-48044366F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF9F48-C98E-9F40-AB1F-F5CA99D606B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="1" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="2" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookup_table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="164">
   <si>
     <t>OEKS15 ensemble member</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Mean year per GWL (p10)</t>
   </si>
   <si>
-    <t>2068-2087</t>
-  </si>
-  <si>
     <t>2072-2091</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>GWL 4.0</t>
+  </si>
+  <si>
+    <t>2001-2020</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2033</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2024</c:v>
@@ -935,7 +935,7 @@
                   <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2022</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2017</c:v>
@@ -965,7 +965,7 @@
                   <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2026</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2009</c:v>
@@ -1001,13 +1001,13 @@
                   <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2016</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2012</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2012</c:v>
@@ -1166,106 +1166,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,106 +1414,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,100 +1668,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,94 +1920,94 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,7 +2544,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="1">
-                  <c:v>2050</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2036</c:v>
@@ -2562,25 +2562,25 @@
                   <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2049</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2047</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2032</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2038</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2037</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2036</c:v>
@@ -2589,7 +2589,7 @@
                   <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2027</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2038</c:v>
@@ -2613,7 +2613,7 @@
                   <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2030</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2029</c:v>
@@ -2622,16 +2622,16 @@
                   <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2035</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2019</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2044</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2036</c:v>
@@ -2787,100 +2787,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3041,94 +3041,94 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,16 +3304,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
@@ -3322,61 +3322,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,7 +3550,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3559,25 +3559,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3592,37 +3592,37 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3881,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
@@ -4158,8 +4158,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
+                <c:pt idx="9">
+                  <c:v>2091</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>2076</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2076</c:v>
@@ -4174,7 +4177,7 @@
                   <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2060</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2066</c:v>
@@ -4186,7 +4189,7 @@
                   <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2069</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2044</c:v>
@@ -4204,10 +4207,10 @@
                   <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2046</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2048</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2063</c:v>
@@ -4396,7 +4399,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4414,7 +4417,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4432,31 +4435,31 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
@@ -4656,13 +4659,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4671,16 +4674,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9</c:v>
@@ -4689,16 +4692,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5</c:v>
@@ -4707,7 +4710,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,43 +4922,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,7 +5168,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8</c:v>
@@ -5180,7 +5183,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4</c:v>
@@ -5195,7 +5198,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5</c:v>
@@ -5993,25 +5996,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
@@ -6235,40 +6238,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6483,19 +6486,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -6504,19 +6507,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,13 +6735,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -6750,19 +6753,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9244,7 +9247,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{40681A4E-A564-4B4D-9AC2-EA65BE481D26}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9288,7 +9291,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6019800"/>
+    <xdr:ext cx="9313333" cy="6017974"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -9321,7 +9324,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6019800"/>
+    <xdr:ext cx="9313333" cy="6017974"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -9354,7 +9357,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6019800"/>
+    <xdr:ext cx="9313333" cy="6017974"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -9716,7 +9719,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9746,13 +9749,16 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9760,23 +9766,26 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9784,7 +9793,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9792,23 +9801,29 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9816,10 +9831,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9827,10 +9842,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9838,10 +9853,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9849,10 +9864,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9860,10 +9875,10 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9871,10 +9886,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9882,10 +9897,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9893,10 +9908,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9904,13 +9922,13 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -9918,13 +9936,13 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9932,10 +9950,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -9943,10 +9961,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -9954,13 +9972,13 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -9968,16 +9986,16 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -9985,16 +10003,16 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10002,16 +10020,16 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10019,16 +10037,16 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10036,16 +10054,16 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -10053,13 +10071,16 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10067,13 +10088,13 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10081,16 +10102,16 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10098,16 +10119,16 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10115,16 +10136,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10132,13 +10153,16 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10146,16 +10170,16 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -10167,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4599D-34AE-794F-94E5-BAFC365E1CD1}">
   <dimension ref="A1:CO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CU45" sqref="CU45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10222,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
@@ -10237,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
@@ -10254,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY1" s="8"/>
       <c r="AZ1" s="8"/>
@@ -10267,7 +10291,7 @@
       <c r="BE1" s="8"/>
       <c r="BI1" s="2"/>
       <c r="BJ1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
@@ -10275,7 +10299,7 @@
       <c r="BN1" s="7"/>
       <c r="BR1" s="2"/>
       <c r="BS1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BT1" s="6"/>
       <c r="BU1" s="6"/>
@@ -10283,7 +10307,7 @@
       <c r="BW1" s="7"/>
       <c r="CA1" s="2"/>
       <c r="CB1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CC1" s="6"/>
       <c r="CD1" s="6"/>
@@ -10291,7 +10315,7 @@
       <c r="CF1" s="7"/>
       <c r="CJ1" s="2"/>
       <c r="CK1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CL1" s="6"/>
       <c r="CM1" s="6"/>
@@ -10501,23 +10525,29 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>2043</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s">
         <v>6</v>
       </c>
       <c r="Z3">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="AD3" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="AK3" t="s">
         <v>6</v>
@@ -10526,30 +10556,30 @@
         <v>6</v>
       </c>
       <c r="BI3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ3">
-        <f t="shared" ref="BJ3:BJ36" si="0">N3</f>
-        <v>2033</v>
+        <f>N3</f>
+        <v>2032</v>
       </c>
       <c r="BK3">
         <f>IF(Z3-N3 &gt; 0, Z3-N3, "")</f>
-        <v>5</v>
-      </c>
-      <c r="BL3" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL3">
         <f>IF(B3-Z3 &gt; 0, B3-Z3, "")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BM3" t="str">
         <f>IF(AL3-B3 &gt; 0, AL3-B3, "")</f>
         <v/>
       </c>
       <c r="BN3" t="str">
-        <f t="shared" ref="BN3:BN36" si="1">IF(AX3-AL3 &gt; 0,AX3-AL3, "")</f>
+        <f>IF(AX3-AL3 &gt; 0,AX3-AL3, "")</f>
         <v/>
       </c>
       <c r="BR3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT3" t="str">
         <f>IF(AA3-O3 &gt; 0, AA3-O3, "")</f>
@@ -10568,26 +10598,26 @@
         <v/>
       </c>
       <c r="CA3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC3" t="str">
-        <f t="shared" ref="CC3:CC36" si="2">IF(AB3-P3 &gt; 0, AB3-P3, "")</f>
+        <f t="shared" ref="CC3:CC36" si="0">IF(AB3-P3 &gt; 0, AB3-P3, "")</f>
         <v/>
       </c>
       <c r="CD3" t="str">
-        <f t="shared" ref="CD3:CD36" si="3">IF(D3-AB3 &gt; 0, D3-AB3, "")</f>
+        <f t="shared" ref="CD3:CD36" si="1">IF(D3-AB3 &gt; 0, D3-AB3, "")</f>
         <v/>
       </c>
       <c r="CE3" t="str">
-        <f t="shared" ref="CE3:CE36" si="4">IF(AN3-D3 &gt; 0, AN3-D3, "")</f>
+        <f t="shared" ref="CE3:CE36" si="2">IF(AN3-D3 &gt; 0, AN3-D3, "")</f>
         <v/>
       </c>
       <c r="CF3" t="str">
-        <f t="shared" ref="CF3:CF36" si="5">IF(AZ3-AN3 &gt; 0,AZ3-AN3, "")</f>
+        <f t="shared" ref="CF3:CF36" si="3">IF(AZ3-AN3 &gt; 0,AZ3-AN3, "")</f>
         <v/>
       </c>
       <c r="CJ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL3" t="str">
         <f>IF(AC3-Q3 &gt; 0, AC3-Q3, "")</f>
@@ -10611,10 +10641,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2050</v>
+        <v>2036</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
@@ -10623,22 +10653,22 @@
         <v>2024</v>
       </c>
       <c r="O4">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="R4" t="s">
         <v>90</v>
       </c>
       <c r="S4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="AD4" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="s">
         <v>7</v>
@@ -10647,34 +10677,34 @@
         <v>7</v>
       </c>
       <c r="BI4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BJ4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BJ3:BJ36" si="4">N4</f>
         <v>2024</v>
       </c>
       <c r="BK4">
-        <f t="shared" ref="BK4:BK36" si="6">IF(Z4-N4 &gt; 0, Z4-N4, "")</f>
-        <v>11</v>
+        <f t="shared" ref="BK4:BK36" si="5">IF(Z4-N4 &gt; 0, Z4-N4, "")</f>
+        <v>2</v>
       </c>
       <c r="BL4">
-        <f t="shared" ref="BL4:BL36" si="7">IF(B4-Z4 &gt; 0, B4-Z4, "")</f>
-        <v>15</v>
+        <f t="shared" ref="BL4:BL36" si="6">IF(B4-Z4 &gt; 0, B4-Z4, "")</f>
+        <v>10</v>
       </c>
       <c r="BM4" t="str">
-        <f t="shared" ref="BM4:BM36" si="8">IF(AL4-B4 &gt; 0, AL4-B4, "")</f>
+        <f t="shared" ref="BM4:BM36" si="7">IF(AL4-B4 &gt; 0, AL4-B4, "")</f>
         <v/>
       </c>
       <c r="BN4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BN3:BN36" si="8">IF(AX4-AL4 &gt; 0,AX4-AL4, "")</f>
         <v/>
       </c>
       <c r="BR4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS4:BS36" si="9">O4</f>
-        <v>2050</v>
+        <f t="shared" ref="BS3:BS36" si="9">O4</f>
+        <v>2043</v>
       </c>
       <c r="BT4" t="str">
         <f t="shared" ref="BT4:BT36" si="10">IF(AA4-O4 &gt; 0, AA4-O4, "")</f>
@@ -10693,26 +10723,26 @@
         <v/>
       </c>
       <c r="CA4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CC4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD4" t="str">
+      <c r="CF4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CL4" t="str">
         <f t="shared" ref="CL4:CL36" si="14">IF(AC4-Q4 &gt; 0, AC4-Q4, "")</f>
@@ -10736,10 +10766,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -10760,50 +10790,62 @@
         <v>9</v>
       </c>
       <c r="Z5">
-        <v>2032</v>
+        <v>2024</v>
+      </c>
+      <c r="AA5">
+        <v>2040</v>
       </c>
       <c r="AD5" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
         <v>9</v>
       </c>
+      <c r="AL5">
+        <v>2043</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>49</v>
+      </c>
       <c r="AW5" t="s">
         <v>9</v>
       </c>
       <c r="BI5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BJ5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="BK5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BL5">
+        <v>8</v>
+      </c>
+      <c r="BM5">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BM5" t="str">
+        <v>11</v>
+      </c>
+      <c r="BN5" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="BR5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BS5">
         <f t="shared" si="9"/>
         <v>2036</v>
       </c>
-      <c r="BT5" t="str">
+      <c r="BT5">
         <f t="shared" si="10"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="BU5" t="str">
         <f t="shared" si="11"/>
@@ -10818,26 +10860,26 @@
         <v/>
       </c>
       <c r="CA5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CC5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD5" t="str">
+      <c r="CF5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CL5" t="str">
         <f t="shared" si="14"/>
@@ -10860,6 +10902,12 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6">
+        <v>2043</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
@@ -10873,10 +10921,10 @@
         <v>11</v>
       </c>
       <c r="Z6">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="AD6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AK6" t="s">
         <v>11</v>
@@ -10885,30 +10933,30 @@
         <v>11</v>
       </c>
       <c r="BI6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BJ6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="BK6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BL6">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BL6" t="str">
+        <v>7</v>
+      </c>
+      <c r="BM6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BM6" t="str">
+      <c r="BN6" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="BR6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BT6" t="str">
         <f t="shared" si="10"/>
@@ -10927,26 +10975,26 @@
         <v/>
       </c>
       <c r="CA6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CC6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD6" t="str">
+      <c r="CF6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CL6" t="str">
         <f t="shared" si="14"/>
@@ -10970,16 +11018,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C7">
-        <v>2054</v>
+        <v>2028</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -11000,25 +11048,25 @@
         <v>12</v>
       </c>
       <c r="Z7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="AA7">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="AP7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="AW7" t="s">
         <v>12</v>
@@ -11030,30 +11078,30 @@
         <v>85</v>
       </c>
       <c r="BI7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BJ7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="BK7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL7">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="BL7">
+        <v>2</v>
+      </c>
+      <c r="BM7">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="BM7">
+        <v>6</v>
+      </c>
+      <c r="BN7">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="BN7">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BR7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BS7">
         <f t="shared" si="9"/>
@@ -11061,11 +11109,11 @@
       </c>
       <c r="BT7">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BU7">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="BV7" t="str">
         <f t="shared" si="12"/>
@@ -11076,26 +11124,26 @@
         <v/>
       </c>
       <c r="CA7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CC7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD7" t="str">
+      <c r="CF7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CL7" t="str">
         <f t="shared" si="14"/>
@@ -11119,22 +11167,22 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2039</v>
+        <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
       </c>
       <c r="N8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="O8">
         <v>2039</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="S8" t="s">
         <v>10</v>
@@ -11143,42 +11191,54 @@
         <v>15</v>
       </c>
       <c r="Z8">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="AA8">
+        <v>2039</v>
       </c>
       <c r="AD8" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>10</v>
       </c>
       <c r="AK8" t="s">
         <v>15</v>
       </c>
+      <c r="AL8">
+        <v>2072</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>107</v>
+      </c>
       <c r="AW8" t="s">
         <v>15</v>
       </c>
       <c r="BI8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BJ8">
-        <f t="shared" si="0"/>
-        <v>2022</v>
+        <f t="shared" si="4"/>
+        <v>2021</v>
       </c>
       <c r="BK8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL8">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="BL8">
+        <v>3</v>
+      </c>
+      <c r="BM8">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="BM8" t="str">
+        <v>46</v>
+      </c>
+      <c r="BN8" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="BR8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BS8">
         <f t="shared" si="9"/>
@@ -11201,26 +11261,26 @@
         <v/>
       </c>
       <c r="CA8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CC8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD8" t="str">
+      <c r="CF8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CL8" t="str">
         <f t="shared" si="14"/>
@@ -11244,10 +11304,16 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2026</v>
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>2038</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -11268,25 +11334,25 @@
         <v>16</v>
       </c>
       <c r="Z9">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="AA9">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="AD9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AE9" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="s">
         <v>16</v>
       </c>
       <c r="AL9">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="AP9" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AW9" t="s">
         <v>16</v>
@@ -11298,30 +11364,30 @@
         <v>10</v>
       </c>
       <c r="BI9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BJ9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="BK9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BL9">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="BL9">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="BM9">
+      <c r="BN9">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="BN9">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BR9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BS9">
         <f t="shared" si="9"/>
@@ -11329,11 +11395,11 @@
       </c>
       <c r="BT9">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="11"/>
         <v>11</v>
-      </c>
-      <c r="BU9" t="str">
-        <f t="shared" si="11"/>
-        <v/>
       </c>
       <c r="BV9" t="str">
         <f t="shared" si="12"/>
@@ -11344,26 +11410,26 @@
         <v/>
       </c>
       <c r="CA9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CC9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD9" t="str">
+      <c r="CF9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CL9" t="str">
         <f t="shared" si="14"/>
@@ -11386,6 +11452,12 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>2085</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
       <c r="M10" t="s">
         <v>18</v>
       </c>
@@ -11399,10 +11471,10 @@
         <v>18</v>
       </c>
       <c r="Z10">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="s">
         <v>18</v>
@@ -11411,30 +11483,30 @@
         <v>18</v>
       </c>
       <c r="BI10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BJ10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="BK10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL10">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BL10" t="str">
+        <v>72</v>
+      </c>
+      <c r="BM10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BM10" t="str">
+      <c r="BN10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="BR10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT10" t="str">
         <f t="shared" si="10"/>
@@ -11453,26 +11525,26 @@
         <v/>
       </c>
       <c r="CA10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CC10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD10" t="str">
+      <c r="CF10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CL10" t="str">
         <f t="shared" si="14"/>
@@ -11496,16 +11568,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="C11">
-        <v>2076</v>
+        <v>2062</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -11526,25 +11598,25 @@
         <v>19</v>
       </c>
       <c r="Z11">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="AA11">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="s">
         <v>19</v>
       </c>
       <c r="AL11">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AP11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="s">
         <v>19</v>
@@ -11556,42 +11628,42 @@
         <v>35</v>
       </c>
       <c r="BI11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BJ11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="BK11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BL11">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="BL11">
+        <v>10</v>
+      </c>
+      <c r="BM11">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="BN11">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BS11">
         <f t="shared" si="9"/>
         <v>2055</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="str">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="BU11">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BV11" t="str">
         <f t="shared" si="12"/>
@@ -11602,26 +11674,26 @@
         <v/>
       </c>
       <c r="CA11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CC11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD11" t="str">
+      <c r="CF11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CL11" t="str">
         <f t="shared" si="14"/>
@@ -11645,16 +11717,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="C12">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -11663,40 +11735,46 @@
         <v>2013</v>
       </c>
       <c r="O12">
-        <v>2049</v>
+        <v>2047</v>
+      </c>
+      <c r="P12">
+        <v>2091</v>
       </c>
       <c r="R12" t="s">
         <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="T12" t="s">
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
         <v>22</v>
       </c>
       <c r="Z12">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="AA12">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="AD12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AE12" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s">
         <v>22</v>
       </c>
       <c r="AL12">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="AM12">
         <v>2087</v>
       </c>
       <c r="AP12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="s">
         <v>70</v>
@@ -11707,76 +11785,86 @@
       <c r="AX12">
         <v>2057</v>
       </c>
+      <c r="AY12">
+        <v>2091</v>
+      </c>
       <c r="BB12" t="s">
         <v>27</v>
       </c>
+      <c r="BC12" t="s">
+        <v>117</v>
+      </c>
       <c r="BI12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BJ12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="BK12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="BL12">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="BL12">
+        <v>16</v>
+      </c>
+      <c r="BM12">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="BM12">
+        <v>10</v>
+      </c>
+      <c r="BN12">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="BN12">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS12">
         <f t="shared" si="9"/>
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="BT12">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BU12">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BV12">
         <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="BW12" t="str">
+        <v>31</v>
+      </c>
+      <c r="BW12">
         <f t="shared" si="13"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="CA12" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" ref="CB3:CB36" si="18">P12</f>
+        <v>2091</v>
       </c>
       <c r="CC12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD12" t="str">
+      <c r="CF12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CL12" t="str">
         <f t="shared" si="14"/>
@@ -11800,16 +11888,16 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>2046</v>
+        <v>2035</v>
       </c>
       <c r="C13">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
         <v>25</v>
@@ -11830,31 +11918,31 @@
         <v>25</v>
       </c>
       <c r="Z13">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="AA13">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="AD13" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s">
         <v>25</v>
       </c>
       <c r="AL13">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="AM13">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="AP13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="AW13" t="s">
         <v>25</v>
@@ -11866,30 +11954,30 @@
         <v>42</v>
       </c>
       <c r="BI13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BJ13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="BK13">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BL13">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="BL13">
+        <v>10</v>
+      </c>
+      <c r="BM13">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BM13">
+        <v>14</v>
+      </c>
+      <c r="BN13">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BN13">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BR13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BS13">
         <f t="shared" si="9"/>
@@ -11897,41 +11985,41 @@
       </c>
       <c r="BT13">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BU13">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BV13">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BW13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CC13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD13" t="str">
+      <c r="CF13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CL13" t="str">
         <f t="shared" si="14"/>
@@ -11955,16 +12043,16 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="C14">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
@@ -11973,43 +12061,43 @@
         <v>2021</v>
       </c>
       <c r="O14">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="R14" t="s">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="s">
         <v>28</v>
       </c>
       <c r="Z14">
-        <v>2040</v>
+        <v>2023</v>
       </c>
       <c r="AA14">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="AD14" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="s">
         <v>28</v>
       </c>
       <c r="AL14">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="AM14">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AP14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AQ14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AW14" t="s">
         <v>28</v>
@@ -12021,72 +12109,72 @@
         <v>27</v>
       </c>
       <c r="BI14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BJ14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="BK14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL14">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="BM14">
+      <c r="BN14">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="BN14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="BR14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BS14">
         <f t="shared" si="9"/>
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="BT14">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BU14">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BV14">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BW14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CC14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD14" t="str">
+      <c r="CF14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CL14" t="str">
         <f t="shared" si="14"/>
@@ -12110,16 +12198,16 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C15">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
@@ -12128,37 +12216,37 @@
         <v>2014</v>
       </c>
       <c r="O15">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="P15">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="R15" t="s">
         <v>97</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="T15" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="Y15" t="s">
         <v>30</v>
       </c>
       <c r="Z15">
-        <v>2028</v>
+        <v>2016</v>
       </c>
       <c r="AA15">
-        <v>2044</v>
+        <v>2033</v>
       </c>
       <c r="AB15">
         <v>2083</v>
       </c>
       <c r="AD15" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AF15" t="s">
         <v>58</v>
@@ -12167,13 +12255,13 @@
         <v>30</v>
       </c>
       <c r="AL15">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="AM15">
         <v>2058</v>
       </c>
       <c r="AP15" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AQ15" t="s">
         <v>24</v>
@@ -12185,85 +12273,85 @@
         <v>2051</v>
       </c>
       <c r="AY15">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="BB15" t="s">
         <v>74</v>
       </c>
       <c r="BC15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="BI15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BJ15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="BK15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL15">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="BL15">
+        <v>13</v>
+      </c>
+      <c r="BM15">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BM15">
+        <v>11</v>
+      </c>
+      <c r="BN15">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="BN15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BR15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BS15">
         <f t="shared" si="9"/>
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="BT15">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BU15">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BV15">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BW15">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="CA15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CB15">
         <f>P15</f>
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="CC15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="CD15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE15" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="CD15" t="str">
+        <v/>
+      </c>
+      <c r="CF15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CL15" t="str">
         <f t="shared" si="14"/>
@@ -12287,16 +12375,16 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="C16">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
@@ -12323,31 +12411,31 @@
         <v>33</v>
       </c>
       <c r="Z16">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="AA16">
-        <v>2063</v>
+        <v>2036</v>
       </c>
       <c r="AD16" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AK16" t="s">
         <v>33</v>
       </c>
       <c r="AL16">
-        <v>2063</v>
+        <v>2040</v>
       </c>
       <c r="AM16">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="AP16" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AQ16" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AW16" t="s">
         <v>33</v>
@@ -12356,39 +12444,39 @@
         <v>2065</v>
       </c>
       <c r="AY16">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="BB16" t="s">
         <v>35</v>
       </c>
       <c r="BC16" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="BI16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="BK16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BM16">
+        <v>15</v>
+      </c>
+      <c r="BN16">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="BN16">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BR16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BS16">
         <f t="shared" si="9"/>
@@ -12396,11 +12484,11 @@
       </c>
       <c r="BT16">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="BU16">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="BV16">
         <f t="shared" si="12"/>
@@ -12408,33 +12496,33 @@
       </c>
       <c r="BW16">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CA16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CB16">
-        <f>P16</f>
+        <f t="shared" si="18"/>
         <v>2076</v>
       </c>
       <c r="CC16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD16" t="str">
+      <c r="CF16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CL16" t="str">
         <f t="shared" si="14"/>
@@ -12458,16 +12546,16 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C17">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
         <v>36</v>
@@ -12476,37 +12564,37 @@
         <v>2025</v>
       </c>
       <c r="O17">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="R17" t="s">
         <v>44</v>
       </c>
       <c r="S17" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
       </c>
       <c r="Z17">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="AA17">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="AD17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AE17" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AK17" t="s">
         <v>36</v>
       </c>
       <c r="AL17">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="AP17" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AW17" t="s">
         <v>36</v>
@@ -12518,42 +12606,42 @@
         <v>77</v>
       </c>
       <c r="BI17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BJ17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="BK17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL17">
         <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="BL17">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM17">
+      <c r="BN17">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="BN17">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BR17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BS17">
         <f t="shared" si="9"/>
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="BT17">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU17">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BV17" t="str">
         <f t="shared" si="12"/>
@@ -12564,26 +12652,26 @@
         <v/>
       </c>
       <c r="CA17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CC17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD17" t="str">
+      <c r="CF17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CL17" t="str">
         <f t="shared" si="14"/>
@@ -12607,34 +12695,34 @@
         <v>39</v>
       </c>
       <c r="B18">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="C18">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
         <v>39</v>
       </c>
       <c r="N18">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="O18">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="P18">
         <v>2079</v>
       </c>
       <c r="R18" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
         <v>100</v>
@@ -12643,31 +12731,31 @@
         <v>39</v>
       </c>
       <c r="Z18">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="AA18">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="AD18" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AE18" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AK18" t="s">
         <v>39</v>
       </c>
       <c r="AL18">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="AM18">
         <v>2075</v>
       </c>
       <c r="AP18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AQ18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW18" t="s">
         <v>39</v>
@@ -12675,80 +12763,86 @@
       <c r="AX18">
         <v>2069</v>
       </c>
+      <c r="AY18">
+        <v>2079</v>
+      </c>
       <c r="BB18" t="s">
         <v>46</v>
       </c>
+      <c r="BC18" t="s">
+        <v>100</v>
+      </c>
       <c r="BI18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="0"/>
-        <v>2026</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
       <c r="BK18">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BL18">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="BL18">
+        <v>4</v>
+      </c>
+      <c r="BM18">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM18">
+        <v>11</v>
+      </c>
+      <c r="BN18">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="BN18">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BR18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BS18">
         <f t="shared" si="9"/>
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="BT18">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BU18">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BV18">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="BW18" t="str">
+        <v>13</v>
+      </c>
+      <c r="BW18">
         <f t="shared" si="13"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="CA18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CB18">
-        <f>P18</f>
+        <f t="shared" si="18"/>
         <v>2079</v>
       </c>
       <c r="CC18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD18" t="str">
+      <c r="CF18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CL18" t="str">
         <f t="shared" si="14"/>
@@ -12772,16 +12866,22 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="C19">
-        <v>2056</v>
+        <v>2044</v>
+      </c>
+      <c r="D19">
+        <v>2079</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
       </c>
       <c r="M19" t="s">
         <v>41</v>
@@ -12808,22 +12908,22 @@
         <v>41</v>
       </c>
       <c r="Z19">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="AA19">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="AB19">
         <v>2074</v>
       </c>
       <c r="AD19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s">
         <v>41</v>
@@ -12832,13 +12932,13 @@
         <v>2041</v>
       </c>
       <c r="AM19">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="AP19" t="s">
         <v>45</v>
       </c>
       <c r="AQ19" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="AW19" t="s">
         <v>41</v>
@@ -12847,39 +12947,39 @@
         <v>2047</v>
       </c>
       <c r="AY19">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="BB19" t="s">
         <v>96</v>
       </c>
       <c r="BC19" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="BI19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BJ19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="BK19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="BL19">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="BL19">
+        <v>6</v>
+      </c>
+      <c r="BM19">
         <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="BM19">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="BN19">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="BR19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BS19">
         <f t="shared" si="9"/>
@@ -12887,45 +12987,45 @@
       </c>
       <c r="BT19">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BU19">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BV19">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BW19">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CB19">
-        <f>P19</f>
+        <f t="shared" si="18"/>
         <v>2070</v>
       </c>
       <c r="CC19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="CD19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CE19" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="CD19" t="str">
+        <v/>
+      </c>
+      <c r="CF19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CL19" t="str">
         <f t="shared" si="14"/>
@@ -12949,22 +13049,22 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C20">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="D20">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
@@ -12991,19 +13091,19 @@
         <v>43</v>
       </c>
       <c r="Z20">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="AA20">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="AB20">
         <v>2055</v>
       </c>
       <c r="AD20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AE20" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="s">
         <v>20</v>
@@ -13012,13 +13112,13 @@
         <v>43</v>
       </c>
       <c r="AL20">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="AM20">
         <v>2044</v>
       </c>
       <c r="AP20" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AQ20" t="s">
         <v>106</v>
@@ -13030,39 +13130,39 @@
         <v>2039</v>
       </c>
       <c r="AY20">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="BB20" t="s">
         <v>10</v>
       </c>
       <c r="BC20" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="BI20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BJ20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="BK20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL20">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM20">
+        <v>10</v>
+      </c>
+      <c r="BN20">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BN20">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BR20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BS20">
         <f t="shared" si="9"/>
@@ -13070,7 +13170,7 @@
       </c>
       <c r="BT20">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BU20">
         <f t="shared" si="11"/>
@@ -13078,37 +13178,37 @@
       </c>
       <c r="BV20">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BW20">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CB20">
-        <f>P20</f>
+        <f t="shared" si="18"/>
         <v>2052</v>
       </c>
       <c r="CC20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="CD20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CE20" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CD20">
+        <v/>
+      </c>
+      <c r="CF20" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="CE20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF20" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="CJ20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CL20" t="str">
         <f t="shared" si="14"/>
@@ -13132,22 +13232,22 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="C21">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="D21">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -13156,52 +13256,52 @@
         <v>2012</v>
       </c>
       <c r="O21">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="P21">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="R21" t="s">
         <v>95</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="s">
         <v>47</v>
       </c>
       <c r="Z21">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="AA21">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="AB21">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="AD21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AE21" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s">
         <v>47</v>
       </c>
       <c r="AL21">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="AM21">
         <v>2053</v>
       </c>
       <c r="AP21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AQ21" t="s">
         <v>85</v>
@@ -13213,85 +13313,85 @@
         <v>2039</v>
       </c>
       <c r="AY21">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="BB21" t="s">
         <v>10</v>
       </c>
       <c r="BC21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BI21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BJ21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="BK21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BL21">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="BL21">
+        <v>2</v>
+      </c>
+      <c r="BM21">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="BM21">
+        <v>13</v>
+      </c>
+      <c r="BN21">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BN21">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BR21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BS21">
         <f t="shared" si="9"/>
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="BT21">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BU21">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BV21">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BW21">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CA21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CB21">
-        <f>P21</f>
-        <v>2060</v>
+        <f t="shared" si="18"/>
+        <v>2058</v>
       </c>
       <c r="CC21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="CD21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CE21" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CD21">
+        <v/>
+      </c>
+      <c r="CF21" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="CE21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF21" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="CJ21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CL21" t="str">
         <f t="shared" si="14"/>
@@ -13315,16 +13415,16 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="C22">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
         <v>50</v>
@@ -13345,25 +13445,25 @@
         <v>50</v>
       </c>
       <c r="Z22">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AA22">
-        <v>2081</v>
+        <v>2040</v>
       </c>
       <c r="AD22" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
         <v>50</v>
       </c>
       <c r="AL22">
-        <v>2081</v>
+        <v>2058</v>
       </c>
       <c r="AP22" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="s">
         <v>50</v>
@@ -13375,30 +13475,30 @@
         <v>105</v>
       </c>
       <c r="BI22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BJ22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
       <c r="BK22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BL22">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="BL22">
+        <v>4</v>
+      </c>
+      <c r="BM22">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BM22">
+        <v>25</v>
+      </c>
+      <c r="BN22">
         <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="BN22">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BR22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BS22">
         <f t="shared" si="9"/>
@@ -13406,11 +13506,11 @@
       </c>
       <c r="BT22">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="BU22">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="BV22" t="str">
         <f t="shared" si="12"/>
@@ -13421,26 +13521,26 @@
         <v/>
       </c>
       <c r="CA22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CC22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD22" t="str">
+      <c r="CF22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CL22" t="str">
         <f t="shared" si="14"/>
@@ -13464,16 +13564,16 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="C23">
-        <v>2070</v>
+        <v>2039</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
         <v>52</v>
@@ -13494,28 +13594,28 @@
         <v>52</v>
       </c>
       <c r="Z23">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AA23">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="AD23" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AK23" t="s">
         <v>52</v>
       </c>
       <c r="AL23">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="AM23">
         <v>2084</v>
       </c>
       <c r="AP23" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AQ23" t="s">
         <v>105</v>
@@ -13530,30 +13630,30 @@
         <v>87</v>
       </c>
       <c r="BI23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="BK23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BL23">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BL23">
+        <v>4</v>
+      </c>
+      <c r="BM23">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM23">
+        <v>9</v>
+      </c>
+      <c r="BN23">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="BN23">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BR23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BS23">
         <f t="shared" si="9"/>
@@ -13561,41 +13661,41 @@
       </c>
       <c r="BT23">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU23">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="BV23">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="BW23" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CC23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="CD23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="CD23" t="str">
+      <c r="CF23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="CE23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CF23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="CJ23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CL23" t="str">
         <f t="shared" si="14"/>
@@ -13619,22 +13719,22 @@
         <v>54</v>
       </c>
       <c r="B24">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="C24">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D24">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s">
         <v>54</v>
@@ -13667,10 +13767,10 @@
         <v>54</v>
       </c>
       <c r="Z24">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="AA24">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="AB24">
         <v>2069</v>
@@ -13679,22 +13779,22 @@
         <v>2091</v>
       </c>
       <c r="AD24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AF24" t="s">
         <v>46</v>
       </c>
       <c r="AG24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s">
         <v>54</v>
       </c>
       <c r="AL24">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="AM24">
         <v>2060</v>
@@ -13703,7 +13803,7 @@
         <v>2083</v>
       </c>
       <c r="AP24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AQ24" t="s">
         <v>103</v>
@@ -13721,7 +13821,7 @@
         <v>2066</v>
       </c>
       <c r="AZ24">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="BB24" t="s">
         <v>14</v>
@@ -13730,33 +13830,33 @@
         <v>57</v>
       </c>
       <c r="BD24" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="BI24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BJ24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="BK24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL24">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BM24">
+        <v>9</v>
+      </c>
+      <c r="BN24">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="BN24">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BR24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BS24">
         <f t="shared" si="9"/>
@@ -13764,48 +13864,48 @@
       </c>
       <c r="BT24">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU24">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BV24">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW24">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="CA24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CB24">
-        <f t="shared" ref="CB24:CB36" si="18">P24</f>
+        <f t="shared" si="18"/>
         <v>2066</v>
       </c>
       <c r="CC24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="CD24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CE24">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="CF24">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="CD24">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="CE24">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="CF24">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="CJ24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CK24">
-        <f t="shared" ref="CK24:CK36" si="19">Q24</f>
+        <f t="shared" ref="CK3:CK35" si="19">Q24</f>
         <v>2087</v>
       </c>
       <c r="CL24">
@@ -13830,28 +13930,28 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="C25">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="D25">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E25">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
         <v>56</v>
@@ -13884,10 +13984,10 @@
         <v>56</v>
       </c>
       <c r="Z25">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="AA25">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="AB25">
         <v>2059</v>
@@ -13896,10 +13996,10 @@
         <v>2079</v>
       </c>
       <c r="AD25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s">
         <v>67</v>
@@ -13911,7 +14011,7 @@
         <v>56</v>
       </c>
       <c r="AL25">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AM25">
         <v>2054</v>
@@ -13919,8 +14019,11 @@
       <c r="AN25">
         <v>2069</v>
       </c>
+      <c r="AO25">
+        <v>2083</v>
+      </c>
       <c r="AP25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AQ25" t="s">
         <v>14</v>
@@ -13928,6 +14031,9 @@
       <c r="AR25" t="s">
         <v>46</v>
       </c>
+      <c r="AS25" t="s">
+        <v>58</v>
+      </c>
       <c r="AW25" t="s">
         <v>56</v>
       </c>
@@ -13950,30 +14056,30 @@
         <v>63</v>
       </c>
       <c r="BI25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="BK25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL25">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="BL25">
+        <v>9</v>
+      </c>
+      <c r="BM25">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="BM25">
+        <v>13</v>
+      </c>
+      <c r="BN25">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="BN25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="BR25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BS25">
         <f t="shared" si="9"/>
@@ -13981,45 +14087,45 @@
       </c>
       <c r="BT25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU25">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BV25">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BW25">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="CA25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CB25">
         <f t="shared" si="18"/>
         <v>2056</v>
       </c>
       <c r="CC25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="CD25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CE25">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CD25">
+        <v>4</v>
+      </c>
+      <c r="CF25">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="CE25">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="CF25">
-        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="CJ25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CK25">
         <f t="shared" si="19"/>
@@ -14029,13 +14135,13 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="CM25">
+      <c r="CM25" t="str">
         <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CN25">
+        <f t="shared" si="16"/>
         <v>4</v>
-      </c>
-      <c r="CN25" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="CO25" t="str">
         <f t="shared" si="17"/>
@@ -14047,28 +14153,28 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C26">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="D26">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="E26">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
         <v>59</v>
@@ -14101,10 +14207,10 @@
         <v>59</v>
       </c>
       <c r="Z26">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="AA26">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="AB26">
         <v>2056</v>
@@ -14113,10 +14219,10 @@
         <v>2073</v>
       </c>
       <c r="AD26" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AF26" t="s">
         <v>42</v>
@@ -14128,7 +14234,7 @@
         <v>59</v>
       </c>
       <c r="AL26">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AM26">
         <v>2053</v>
@@ -14137,10 +14243,10 @@
         <v>2066</v>
       </c>
       <c r="AO26">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="AP26" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AQ26" t="s">
         <v>85</v>
@@ -14149,7 +14255,7 @@
         <v>57</v>
       </c>
       <c r="AS26" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="AW26" t="s">
         <v>59</v>
@@ -14158,97 +14264,97 @@
         <v>2043</v>
       </c>
       <c r="AY26">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="AZ26">
         <v>2070</v>
       </c>
       <c r="BA26">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="BB26" t="s">
         <v>49</v>
       </c>
       <c r="BC26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD26" t="s">
         <v>40</v>
       </c>
       <c r="BE26" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="BI26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BJ26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="BK26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL26">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="BL26">
+        <v>8</v>
+      </c>
+      <c r="BM26">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BM26">
+        <v>8</v>
+      </c>
+      <c r="BN26">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="BN26">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="BR26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BS26">
         <f t="shared" si="9"/>
         <v>2032</v>
       </c>
-      <c r="BT26">
+      <c r="BT26" t="str">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="BU26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV26">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BW26">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CB26">
         <f t="shared" si="18"/>
         <v>2054</v>
       </c>
       <c r="CC26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CE26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="CD26">
+        <v>7</v>
+      </c>
+      <c r="CF26">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="CE26">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="CF26">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="CJ26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CK26">
         <f t="shared" si="19"/>
@@ -14260,15 +14366,15 @@
       </c>
       <c r="CM26">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN26">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO26">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:93" x14ac:dyDescent="0.2">
@@ -14276,28 +14382,28 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="C27">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D27">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E27">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="M27" t="s">
         <v>62</v>
@@ -14309,7 +14415,7 @@
         <v>2040</v>
       </c>
       <c r="P27">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="Q27">
         <v>2084</v>
@@ -14321,7 +14427,7 @@
         <v>66</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s">
         <v>105</v>
@@ -14330,50 +14436,56 @@
         <v>62</v>
       </c>
       <c r="Z27">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="AA27">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="AB27">
         <v>2073</v>
       </c>
       <c r="AC27">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AD27" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AE27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF27" t="s">
         <v>38</v>
       </c>
       <c r="AG27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AK27" t="s">
         <v>62</v>
       </c>
       <c r="AL27">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AM27">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="AN27">
         <v>2081</v>
       </c>
+      <c r="AO27">
+        <v>2090</v>
+      </c>
       <c r="AP27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AQ27" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="AR27" t="s">
         <v>88</v>
       </c>
+      <c r="AS27" t="s">
+        <v>51</v>
+      </c>
       <c r="AW27" t="s">
         <v>62</v>
       </c>
@@ -14381,7 +14493,7 @@
         <v>2049</v>
       </c>
       <c r="AY27">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="AZ27">
         <v>2084</v>
@@ -14390,36 +14502,36 @@
         <v>23</v>
       </c>
       <c r="BC27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="BD27" t="s">
         <v>105</v>
       </c>
       <c r="BI27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BJ27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="BK27">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL27">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BL27">
+      <c r="BM27">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BM27">
+        <v>8</v>
+      </c>
+      <c r="BN27">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="BN27">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BR27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BS27">
         <f t="shared" si="9"/>
@@ -14427,45 +14539,45 @@
       </c>
       <c r="BT27">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU27">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BV27">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BW27">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CA27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CB27">
         <f t="shared" si="18"/>
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="CC27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="CD27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CE27">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="CD27">
+        <v>6</v>
+      </c>
+      <c r="CF27">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CE27">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="CF27">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CJ27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CK27">
         <f t="shared" si="19"/>
@@ -14473,15 +14585,15 @@
       </c>
       <c r="CL27">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM27">
         <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="CN27">
+        <f t="shared" si="16"/>
         <v>4</v>
-      </c>
-      <c r="CN27" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="CO27" t="str">
         <f t="shared" si="17"/>
@@ -14493,28 +14605,28 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C28">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="D28">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E28">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="M28" t="s">
         <v>64</v>
@@ -14547,34 +14659,34 @@
         <v>64</v>
       </c>
       <c r="Z28">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="AA28">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="AB28">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="AC28">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="AD28" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AE28" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AF28" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AK28" t="s">
         <v>64</v>
       </c>
       <c r="AL28">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="AM28">
         <v>2042</v>
@@ -14583,10 +14695,10 @@
         <v>2067</v>
       </c>
       <c r="AO28">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="AP28" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="AQ28" t="s">
         <v>55</v>
@@ -14595,7 +14707,7 @@
         <v>80</v>
       </c>
       <c r="AS28" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="s">
         <v>64</v>
@@ -14604,51 +14716,51 @@
         <v>2037</v>
       </c>
       <c r="AY28">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="AZ28">
         <v>2072</v>
       </c>
       <c r="BA28">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="BB28" t="s">
         <v>99</v>
       </c>
       <c r="BC28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="BD28" t="s">
         <v>107</v>
       </c>
       <c r="BE28" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="BI28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BJ28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="BK28">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL28">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BL28">
+        <v>9</v>
+      </c>
+      <c r="BM28">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BM28">
+        <v>7</v>
+      </c>
+      <c r="BN28">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="BN28">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="BR28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BS28">
         <f t="shared" si="9"/>
@@ -14656,45 +14768,45 @@
       </c>
       <c r="BT28">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BU28">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BV28">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BW28">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CA28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CB28">
         <f t="shared" si="18"/>
         <v>2044</v>
       </c>
       <c r="CC28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="CD28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CE28">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="CD28">
+        <v>9</v>
+      </c>
+      <c r="CF28">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="CE28">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="CF28">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CJ28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CK28">
         <f t="shared" si="19"/>
@@ -14702,19 +14814,19 @@
       </c>
       <c r="CL28">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM28">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN28">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CO28">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.2">
@@ -14722,28 +14834,28 @@
         <v>68</v>
       </c>
       <c r="B29">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C29">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D29">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E29">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="M29" t="s">
         <v>68</v>
@@ -14752,7 +14864,7 @@
         <v>2017</v>
       </c>
       <c r="O29">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="P29">
         <v>2066</v>
@@ -14764,7 +14876,7 @@
         <v>94</v>
       </c>
       <c r="S29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T29" t="s">
         <v>57</v>
@@ -14776,49 +14888,55 @@
         <v>68</v>
       </c>
       <c r="Z29">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="AA29">
-        <v>2048</v>
+        <v>2030</v>
       </c>
       <c r="AB29">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="AC29">
         <v>2082</v>
       </c>
       <c r="AD29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AE29" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="AF29" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s">
         <v>68</v>
       </c>
       <c r="AL29">
-        <v>2048</v>
+        <v>2035</v>
       </c>
       <c r="AM29">
         <v>2064</v>
       </c>
       <c r="AN29">
-        <v>2076</v>
+        <v>2075</v>
+      </c>
+      <c r="AO29">
+        <v>2087</v>
       </c>
       <c r="AP29" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AQ29" t="s">
         <v>110</v>
       </c>
       <c r="AR29" t="s">
-        <v>21</v>
+        <v>123</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>70</v>
       </c>
       <c r="AW29" t="s">
         <v>68</v>
@@ -14842,76 +14960,76 @@
         <v>61</v>
       </c>
       <c r="BI29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BJ29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="BK29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL29">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BL29">
+      <c r="BM29">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM29">
+        <v>10</v>
+      </c>
+      <c r="BN29">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="BN29">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BR29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BS29">
         <f t="shared" si="9"/>
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="BT29">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BU29">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="BV29">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW29">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="CA29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CB29">
         <f t="shared" si="18"/>
         <v>2066</v>
       </c>
       <c r="CC29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CE29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="CD29">
+      <c r="CF29">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CE29">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="CF29">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CK29">
         <f t="shared" si="19"/>
@@ -14921,13 +15039,13 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="CM29">
+      <c r="CM29" t="str">
         <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CN29">
+        <f t="shared" si="16"/>
         <v>5</v>
-      </c>
-      <c r="CN29" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="CO29" t="str">
         <f t="shared" si="17"/>
@@ -14939,28 +15057,34 @@
         <v>71</v>
       </c>
       <c r="B30">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C30">
-        <v>2054</v>
+        <v>2043</v>
       </c>
       <c r="D30">
-        <v>2077</v>
+        <v>2075</v>
+      </c>
+      <c r="E30">
+        <v>2088</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
       </c>
       <c r="M30" t="s">
         <v>71</v>
       </c>
       <c r="N30">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O30">
         <v>2029</v>
@@ -14972,7 +15096,7 @@
         <v>2085</v>
       </c>
       <c r="R30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="S30" t="s">
         <v>72</v>
@@ -14987,34 +15111,34 @@
         <v>71</v>
       </c>
       <c r="Z30">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="AA30">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="AB30">
         <v>2070</v>
       </c>
       <c r="AC30">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="AD30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AE30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AF30" t="s">
         <v>40</v>
       </c>
       <c r="AG30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s">
         <v>71</v>
       </c>
       <c r="AL30">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="AM30">
         <v>2060</v>
@@ -15023,7 +15147,7 @@
         <v>2081</v>
       </c>
       <c r="AP30" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AQ30" t="s">
         <v>103</v>
@@ -15038,7 +15162,7 @@
         <v>2045</v>
       </c>
       <c r="AY30">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="AZ30">
         <v>2085</v>
@@ -15047,36 +15171,36 @@
         <v>84</v>
       </c>
       <c r="BC30" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="BD30" t="s">
         <v>109</v>
       </c>
       <c r="BI30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BJ30">
-        <f t="shared" si="0"/>
-        <v>2016</v>
+        <f t="shared" si="4"/>
+        <v>2015</v>
       </c>
       <c r="BK30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL30">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="BL30">
+      <c r="BM30">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="BM30">
+        <v>8</v>
+      </c>
+      <c r="BN30">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="BN30">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BR30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS30">
         <f t="shared" si="9"/>
@@ -15084,45 +15208,45 @@
       </c>
       <c r="BT30">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BU30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BV30">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BW30">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CB30">
         <f t="shared" si="18"/>
         <v>2068</v>
       </c>
       <c r="CC30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CE30">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="CD30">
+        <v>6</v>
+      </c>
+      <c r="CF30">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="CE30">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="CF30">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="CJ30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CK30">
         <f t="shared" si="19"/>
@@ -15130,11 +15254,11 @@
       </c>
       <c r="CL30">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="CM30" t="str">
+        <v>1</v>
+      </c>
+      <c r="CM30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="CN30" t="str">
         <f t="shared" si="16"/>
@@ -15150,22 +15274,22 @@
         <v>73</v>
       </c>
       <c r="B31">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C31">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="D31">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
         <v>73</v>
@@ -15198,22 +15322,22 @@
         <v>73</v>
       </c>
       <c r="Z31">
-        <v>2047</v>
+        <v>2013</v>
       </c>
       <c r="AA31">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="AB31">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="AD31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE31" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s">
         <v>73</v>
@@ -15258,30 +15382,30 @@
         <v>111</v>
       </c>
       <c r="BI31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BJ31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="BK31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BL31">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="BL31">
+      <c r="BM31">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BN31">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="BM31">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="BN31">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="BR31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BS31">
         <f t="shared" si="9"/>
@@ -15289,45 +15413,45 @@
       </c>
       <c r="BT31">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU31">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV31">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BW31">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="CA31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CB31">
         <f t="shared" si="18"/>
         <v>2064</v>
       </c>
       <c r="CC31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CE31">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CD31">
+        <v>9</v>
+      </c>
+      <c r="CF31">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="CE31">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="CF31">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="CJ31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CK31">
         <f t="shared" si="19"/>
@@ -15355,37 +15479,37 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="C32">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D32">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="E32">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M32" t="s">
         <v>75</v>
       </c>
       <c r="N32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O32">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="P32">
         <v>2049</v>
@@ -15394,10 +15518,10 @@
         <v>2064</v>
       </c>
       <c r="R32" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="S32" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
         <v>23</v>
@@ -15409,34 +15533,34 @@
         <v>75</v>
       </c>
       <c r="Z32">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="AA32">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="AB32">
         <v>2051</v>
       </c>
       <c r="AC32">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="AD32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AE32" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s">
         <v>74</v>
       </c>
       <c r="AG32" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AK32" t="s">
         <v>75</v>
       </c>
       <c r="AL32">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="AM32">
         <v>2048</v>
@@ -15445,10 +15569,10 @@
         <v>2059</v>
       </c>
       <c r="AO32">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="AP32" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AQ32" t="s">
         <v>112</v>
@@ -15457,7 +15581,7 @@
         <v>67</v>
       </c>
       <c r="AS32" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AW32" t="s">
         <v>75</v>
@@ -15466,97 +15590,97 @@
         <v>2042</v>
       </c>
       <c r="AY32">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="AZ32">
         <v>2064</v>
       </c>
       <c r="BA32">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="BB32" t="s">
         <v>55</v>
       </c>
       <c r="BC32" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="BD32" t="s">
         <v>110</v>
       </c>
       <c r="BE32" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="BI32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ32">
-        <f t="shared" si="0"/>
-        <v>2012</v>
+        <f t="shared" si="4"/>
+        <v>2011</v>
       </c>
       <c r="BK32">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BL32">
         <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="BM32">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="BL32">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BM32">
+      <c r="BN32">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="BN32">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BS32">
         <f t="shared" si="9"/>
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="BT32">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU32">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BV32">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW32">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CB32">
         <f t="shared" si="18"/>
         <v>2049</v>
       </c>
       <c r="CC32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CE32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="CD32">
+        <v>4</v>
+      </c>
+      <c r="CF32">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="CE32">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="CF32">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CJ32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CK32">
         <f t="shared" si="19"/>
@@ -15564,19 +15688,19 @@
       </c>
       <c r="CL32">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CN32">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO32">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:93" x14ac:dyDescent="0.2">
@@ -15584,28 +15708,28 @@
         <v>78</v>
       </c>
       <c r="B33">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C33">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="D33">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="E33">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
         <v>78</v>
@@ -15617,7 +15741,7 @@
         <v>2019</v>
       </c>
       <c r="P33">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="Q33">
         <v>2062</v>
@@ -15629,7 +15753,7 @@
         <v>104</v>
       </c>
       <c r="T33" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="U33" t="s">
         <v>60</v>
@@ -15638,34 +15762,34 @@
         <v>78</v>
       </c>
       <c r="Z33">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="AA33">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="AB33">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="AC33">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="AD33" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AE33" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="AK33" t="s">
         <v>78</v>
       </c>
       <c r="AL33">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="AM33">
         <v>2043</v>
@@ -15674,10 +15798,10 @@
         <v>2059</v>
       </c>
       <c r="AO33">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="AP33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AQ33" t="s">
         <v>49</v>
@@ -15686,7 +15810,7 @@
         <v>67</v>
       </c>
       <c r="AS33" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AW33" t="s">
         <v>78</v>
@@ -15695,51 +15819,51 @@
         <v>2032</v>
       </c>
       <c r="AY33">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="AZ33">
         <v>2062</v>
       </c>
       <c r="BA33">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="BB33" t="s">
         <v>31</v>
       </c>
       <c r="BC33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="BD33" t="s">
         <v>60</v>
       </c>
       <c r="BE33" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="BI33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BJ33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="BK33">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL33">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BL33">
+        <v>2</v>
+      </c>
+      <c r="BM33">
         <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BN33">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="BM33">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="BN33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="BR33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BS33">
         <f t="shared" si="9"/>
@@ -15747,45 +15871,45 @@
       </c>
       <c r="BT33">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BU33">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV33">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BW33">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CB33">
         <f t="shared" si="18"/>
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="CC33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="CD33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CE33">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="CD33">
+        <v>6</v>
+      </c>
+      <c r="CF33">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="CE33">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="CF33">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="CJ33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CK33">
         <f t="shared" si="19"/>
@@ -15793,7 +15917,7 @@
       </c>
       <c r="CL33">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM33">
         <f t="shared" si="15"/>
@@ -15801,11 +15925,11 @@
       </c>
       <c r="CN33">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CO33">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.2">
@@ -15813,28 +15937,28 @@
         <v>81</v>
       </c>
       <c r="B34">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C34">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="D34">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E34">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
         <v>81</v>
@@ -15843,10 +15967,10 @@
         <v>2012</v>
       </c>
       <c r="O34">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="P34">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="Q34">
         <v>2065</v>
@@ -15855,10 +15979,10 @@
         <v>95</v>
       </c>
       <c r="S34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="T34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="U34" t="s">
         <v>35</v>
@@ -15867,25 +15991,25 @@
         <v>81</v>
       </c>
       <c r="Z34">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="AA34">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="AB34">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="AC34">
         <v>2066</v>
       </c>
       <c r="AD34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AE34" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="AG34" t="s">
         <v>57</v>
@@ -15894,28 +16018,28 @@
         <v>81</v>
       </c>
       <c r="AL34">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="AM34">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="AN34">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="AO34">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="AP34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AQ34" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="AR34" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AS34" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AW34" t="s">
         <v>81</v>
@@ -15924,97 +16048,97 @@
         <v>2033</v>
       </c>
       <c r="AY34">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="AZ34">
         <v>2065</v>
       </c>
       <c r="BA34">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="BB34" t="s">
         <v>89</v>
       </c>
       <c r="BC34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="BD34" t="s">
         <v>35</v>
       </c>
       <c r="BE34" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="BI34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BJ34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="BK34">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BL34">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BL34">
+        <v>2</v>
+      </c>
+      <c r="BM34">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BM34">
+        <v>9</v>
+      </c>
+      <c r="BN34">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="BN34">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BR34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BS34">
         <f t="shared" si="9"/>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="BT34">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BU34">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BV34">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW34">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="CA34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CB34">
         <f t="shared" si="18"/>
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="CC34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="CD34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="CE34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="CD34">
+        <v>4</v>
+      </c>
+      <c r="CF34">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="CE34">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="CF34">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CJ34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CK34">
         <f t="shared" si="19"/>
@@ -16024,17 +16148,17 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="CM34">
+      <c r="CM34" t="str">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="CN34">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO34">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.2">
@@ -16042,22 +16166,28 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="C35">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D35">
-        <v>2077</v>
+        <v>2076</v>
+      </c>
+      <c r="E35">
+        <v>2090</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
       </c>
       <c r="M35" t="s">
         <v>83</v>
@@ -16066,7 +16196,7 @@
         <v>2018</v>
       </c>
       <c r="O35">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="P35">
         <v>2063</v>
@@ -16078,7 +16208,7 @@
         <v>98</v>
       </c>
       <c r="S35" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
         <v>113</v>
@@ -16090,25 +16220,25 @@
         <v>83</v>
       </c>
       <c r="Z35">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="AA35">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="AB35">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="AC35">
         <v>2089</v>
       </c>
       <c r="AD35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE35" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="AF35" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="s">
         <v>111</v>
@@ -16120,7 +16250,7 @@
         <v>2048</v>
       </c>
       <c r="AM35">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="AN35">
         <v>2080</v>
@@ -16129,7 +16259,7 @@
         <v>112</v>
       </c>
       <c r="AQ35" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="AR35" t="s">
         <v>61</v>
@@ -16156,34 +16286,34 @@
         <v>109</v>
       </c>
       <c r="BI35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BJ35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="BK35">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BL35">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="BL35">
+        <v>10</v>
+      </c>
+      <c r="BM35">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BM35">
+        <v>13</v>
+      </c>
+      <c r="BN35">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="BN35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="BR35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BS35">
         <f t="shared" si="9"/>
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="BT35">
         <f t="shared" si="10"/>
@@ -16191,41 +16321,41 @@
       </c>
       <c r="BU35">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV35">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BW35">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CB35">
         <f t="shared" si="18"/>
         <v>2063</v>
       </c>
       <c r="CC35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="CD35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CE35">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="CD35">
+        <v>4</v>
+      </c>
+      <c r="CF35">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="CE35">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="CF35">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CJ35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CK35">
         <f t="shared" si="19"/>
@@ -16235,9 +16365,9 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="CM35" t="str">
+      <c r="CM35">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="CN35" t="str">
         <f t="shared" si="16"/>
@@ -16253,28 +16383,28 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="C36">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="D36">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="E36">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
         <v>86</v>
@@ -16307,10 +16437,10 @@
         <v>86</v>
       </c>
       <c r="Z36">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="AA36">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="AB36">
         <v>2062</v>
@@ -16319,10 +16449,10 @@
         <v>2077</v>
       </c>
       <c r="AD36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE36" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AF36" t="s">
         <v>60</v>
@@ -16334,28 +16464,28 @@
         <v>86</v>
       </c>
       <c r="AL36">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="AM36">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="AN36">
         <v>2074</v>
       </c>
       <c r="AO36">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="AP36" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="AQ36" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AR36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS36" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="AW36" t="s">
         <v>86</v>
@@ -16370,7 +16500,7 @@
         <v>2076</v>
       </c>
       <c r="BA36">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="BB36" t="s">
         <v>112</v>
@@ -16382,33 +16512,33 @@
         <v>21</v>
       </c>
       <c r="BE36" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="BI36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BJ36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="BK36">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BL36">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="BL36">
+        <v>10</v>
+      </c>
+      <c r="BM36">
         <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BN36">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="BM36">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BN36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="BR36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BS36">
         <f t="shared" si="9"/>
@@ -16416,65 +16546,65 @@
       </c>
       <c r="BT36">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BU36">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BV36">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW36">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CB36">
         <f t="shared" si="18"/>
         <v>2060</v>
       </c>
       <c r="CC36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="CD36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CE36">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="CF36">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="CD36">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="CE36">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="CF36">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
       <c r="CJ36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CK36">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="CK24:CK36" si="20">Q36</f>
         <v>2076</v>
       </c>
       <c r="CL36">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="CM36">
+      <c r="CM36" t="str">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="CN36">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CO36">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF9F48-C98E-9F40-AB1F-F5CA99D606B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8FC18-4625-D04D-9D0F-4B28567BEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="2" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="1" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookup_table" sheetId="2" r:id="rId1"/>
@@ -9247,7 +9247,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{40681A4E-A564-4B4D-9AC2-EA65BE481D26}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0"/>
+    <sheetView zoomScale="153" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10191,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4599D-34AE-794F-94E5-BAFC365E1CD1}">
   <dimension ref="A1:CO36"/>
   <sheetViews>
-    <sheetView topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CU45" sqref="CU45"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CJ45" sqref="CJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10680,7 +10680,7 @@
         <v>127</v>
       </c>
       <c r="BJ4">
-        <f t="shared" ref="BJ3:BJ36" si="4">N4</f>
+        <f t="shared" ref="BJ4:BJ36" si="4">N4</f>
         <v>2024</v>
       </c>
       <c r="BK4">
@@ -10696,14 +10696,14 @@
         <v/>
       </c>
       <c r="BN4" t="str">
-        <f t="shared" ref="BN3:BN36" si="8">IF(AX4-AL4 &gt; 0,AX4-AL4, "")</f>
+        <f t="shared" ref="BN4:BN36" si="8">IF(AX4-AL4 &gt; 0,AX4-AL4, "")</f>
         <v/>
       </c>
       <c r="BR4" t="s">
         <v>127</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS3:BS36" si="9">O4</f>
+        <f t="shared" ref="BS4:BS36" si="9">O4</f>
         <v>2043</v>
       </c>
       <c r="BT4" t="str">
@@ -11844,7 +11844,7 @@
         <v>135</v>
       </c>
       <c r="CB12">
-        <f t="shared" ref="CB3:CB36" si="18">P12</f>
+        <f t="shared" ref="CB12:CB36" si="18">P12</f>
         <v>2091</v>
       </c>
       <c r="CC12" t="str">
@@ -13905,7 +13905,7 @@
         <v>147</v>
       </c>
       <c r="CK24">
-        <f t="shared" ref="CK3:CK35" si="19">Q24</f>
+        <f t="shared" ref="CK24:CK35" si="19">Q24</f>
         <v>2087</v>
       </c>
       <c r="CL24">
@@ -16587,7 +16587,7 @@
         <v>159</v>
       </c>
       <c r="CK36">
-        <f t="shared" ref="CK24:CK36" si="20">Q36</f>
+        <f t="shared" ref="CK36" si="20">Q36</f>
         <v>2076</v>
       </c>
       <c r="CL36">

--- a/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
+++ b/data/gwl_lists/GWLs_CMIP6_OEKS15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8FC18-4625-D04D-9D0F-4B28567BEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C059A-B8A0-3B44-AFDF-434C1F7F6977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="1" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="5" xr2:uid="{489E0962-2F52-8142-A44B-9CA53DE3A000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookup_table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="162">
   <si>
     <t>OEKS15 ensemble member</t>
   </si>
@@ -337,16 +337,10 @@
     <t>2004-2023</t>
   </si>
   <si>
-    <t>2008-2027</t>
-  </si>
-  <si>
     <t>2027-2046</t>
   </si>
   <si>
     <t>2069-2088</t>
-  </si>
-  <si>
-    <t>1999-2018</t>
   </si>
   <si>
     <t>2005-2024</t>
@@ -532,7 +526,7 @@
     <t>GWL 4.0</t>
   </si>
   <si>
-    <t>2001-2020</t>
+    <t>2068-2087</t>
   </si>
 </sst>
 </file>
@@ -920,106 +914,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2022</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2017</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2033</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2013</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2013</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2025</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>2012</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2026</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2021</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2011</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2018</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,19 +1160,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -1187,64 +1181,64 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
@@ -1253,19 +1247,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,106 +1408,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,100 +1662,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +1938,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>25</c:v>
@@ -1959,16 +1953,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9</c:v>
@@ -1977,10 +1971,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5</c:v>
@@ -2544,13 +2538,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="1">
-                  <c:v>2043</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2036</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2039</c:v>
@@ -2562,79 +2556,79 @@
                   <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2047</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2046</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2030</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2036</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2036</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2032</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2028</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2050</c:v>
+                  <c:v>2051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2019</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2017</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2042</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2036</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,100 +2781,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3041,40 +3035,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
@@ -3083,52 +3077,52 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,13 +3301,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
@@ -3322,61 +3316,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,7 +3544,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3559,10 +3553,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3571,10 +3565,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5</c:v>
@@ -3586,16 +3580,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2</c:v>
@@ -3604,25 +3598,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3875,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
@@ -4174,7 +4168,7 @@
                   <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2052</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2058</c:v>
@@ -4198,7 +4192,7 @@
                   <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2068</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2064</c:v>
@@ -4411,22 +4405,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3</c:v>
@@ -4438,28 +4432,28 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
@@ -4659,58 +4653,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,43 +4916,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5177,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4</c:v>
@@ -5198,7 +5192,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5</c:v>
@@ -5741,31 +5735,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="21">
-                  <c:v>2087</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2077</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2071</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2072</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2080</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2085</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2089</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2064</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2062</c:v>
@@ -5774,10 +5768,10 @@
                   <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2085</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2076</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5987,25 +5981,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -6014,16 +6008,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6238,22 +6232,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -6262,16 +6256,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6486,19 +6480,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -6507,19 +6501,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6735,13 +6729,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -6753,19 +6747,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9280,7 +9274,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6553BAE8-C0DB-C641-8A30-ED7F4EEB8FA4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9719,7 +9713,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9749,16 +9743,13 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9766,26 +9757,23 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9793,7 +9781,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9801,29 +9789,26 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9831,10 +9816,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9842,10 +9827,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9853,10 +9838,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9864,10 +9849,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9875,10 +9860,10 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9886,10 +9871,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9897,10 +9882,10 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9908,13 +9893,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9922,13 +9904,13 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -9936,13 +9918,13 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9950,10 +9932,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -9961,10 +9943,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -9972,13 +9954,13 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -9986,16 +9968,16 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -10003,16 +9985,16 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -10020,16 +10002,16 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -10037,16 +10019,16 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -10054,16 +10036,16 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -10071,16 +10053,13 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -10088,13 +10067,13 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -10102,16 +10081,16 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -10119,16 +10098,16 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10136,16 +10115,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10153,16 +10132,16 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10170,16 +10149,16 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -10191,8 +10170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4599D-34AE-794F-94E5-BAFC365E1CD1}">
   <dimension ref="A1:CO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CJ45" sqref="CJ45"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CU46" sqref="CU46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10213,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -10230,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -10246,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
@@ -10261,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
@@ -10278,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AY1" s="8"/>
       <c r="AZ1" s="8"/>
@@ -10291,7 +10270,7 @@
       <c r="BE1" s="8"/>
       <c r="BI1" s="2"/>
       <c r="BJ1" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
@@ -10299,7 +10278,7 @@
       <c r="BN1" s="7"/>
       <c r="BR1" s="2"/>
       <c r="BS1" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BT1" s="6"/>
       <c r="BU1" s="6"/>
@@ -10307,7 +10286,7 @@
       <c r="BW1" s="7"/>
       <c r="CA1" s="2"/>
       <c r="CB1" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CC1" s="6"/>
       <c r="CD1" s="6"/>
@@ -10315,7 +10294,7 @@
       <c r="CF1" s="7"/>
       <c r="CJ1" s="2"/>
       <c r="CK1" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="CL1" s="6"/>
       <c r="CM1" s="6"/>
@@ -10525,29 +10504,23 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2043</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
         <v>6</v>
       </c>
       <c r="Z3">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="AD3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK3" t="s">
         <v>6</v>
@@ -10556,19 +10529,19 @@
         <v>6</v>
       </c>
       <c r="BI3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BJ3">
         <f>N3</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="BK3">
         <f>IF(Z3-N3 &gt; 0, Z3-N3, "")</f>
-        <v>1</v>
-      </c>
-      <c r="BL3">
+        <v>3</v>
+      </c>
+      <c r="BL3" t="str">
         <f>IF(B3-Z3 &gt; 0, B3-Z3, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="BM3" t="str">
         <f>IF(AL3-B3 &gt; 0, AL3-B3, "")</f>
@@ -10579,7 +10552,7 @@
         <v/>
       </c>
       <c r="BR3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BT3" t="str">
         <f>IF(AA3-O3 &gt; 0, AA3-O3, "")</f>
@@ -10598,7 +10571,7 @@
         <v/>
       </c>
       <c r="CA3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CC3" t="str">
         <f t="shared" ref="CC3:CC36" si="0">IF(AB3-P3 &gt; 0, AB3-P3, "")</f>
@@ -10613,11 +10586,11 @@
         <v/>
       </c>
       <c r="CF3" t="str">
-        <f t="shared" ref="CF3:CF36" si="3">IF(AZ3-AN3 &gt; 0,AZ3-AN3, "")</f>
+        <f>IF(AZ3-AN3 &gt; 0,AZ3-AN3, "")</f>
         <v/>
       </c>
       <c r="CJ3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CL3" t="str">
         <f>IF(AC3-Q3 &gt; 0, AC3-Q3, "")</f>
@@ -10641,34 +10614,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2036</v>
+        <v>2050</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="O4">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="AD4" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="AK4" t="s">
         <v>7</v>
@@ -10677,53 +10650,53 @@
         <v>7</v>
       </c>
       <c r="BI4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BJ4">
-        <f t="shared" ref="BJ4:BJ36" si="4">N4</f>
-        <v>2024</v>
+        <f t="shared" ref="BJ4:BJ36" si="3">N4</f>
+        <v>2026</v>
       </c>
       <c r="BK4">
-        <f t="shared" ref="BK4:BK36" si="5">IF(Z4-N4 &gt; 0, Z4-N4, "")</f>
-        <v>2</v>
+        <f t="shared" ref="BK4:BK36" si="4">IF(Z4-N4 &gt; 0, Z4-N4, "")</f>
+        <v>7</v>
       </c>
       <c r="BL4">
-        <f t="shared" ref="BL4:BL36" si="6">IF(B4-Z4 &gt; 0, B4-Z4, "")</f>
-        <v>10</v>
+        <f t="shared" ref="BL4:BL36" si="5">IF(B4-Z4 &gt; 0, B4-Z4, "")</f>
+        <v>17</v>
       </c>
       <c r="BM4" t="str">
-        <f t="shared" ref="BM4:BM36" si="7">IF(AL4-B4 &gt; 0, AL4-B4, "")</f>
+        <f t="shared" ref="BM4:BM36" si="6">IF(AL4-B4 &gt; 0, AL4-B4, "")</f>
         <v/>
       </c>
       <c r="BN4" t="str">
-        <f t="shared" ref="BN4:BN36" si="8">IF(AX4-AL4 &gt; 0,AX4-AL4, "")</f>
+        <f t="shared" ref="BN4:BN36" si="7">IF(AX4-AL4 &gt; 0,AX4-AL4, "")</f>
         <v/>
       </c>
       <c r="BR4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BS4">
-        <f t="shared" ref="BS4:BS36" si="9">O4</f>
-        <v>2043</v>
+        <f t="shared" ref="BS4:BS36" si="8">O4</f>
+        <v>2050</v>
       </c>
       <c r="BT4" t="str">
-        <f t="shared" ref="BT4:BT36" si="10">IF(AA4-O4 &gt; 0, AA4-O4, "")</f>
+        <f t="shared" ref="BT4:BT36" si="9">IF(AA4-O4 &gt; 0, AA4-O4, "")</f>
         <v/>
       </c>
       <c r="BU4" t="str">
-        <f t="shared" ref="BU4:BU36" si="11">IF(C4-AA4 &gt; 0, C4-AA4, "")</f>
+        <f t="shared" ref="BU4:BU36" si="10">IF(C4-AA4 &gt; 0, C4-AA4, "")</f>
         <v/>
       </c>
       <c r="BV4" t="str">
-        <f t="shared" ref="BV4:BV36" si="12">IF(AM4-C4 &gt; 0, AM4-C4, "")</f>
+        <f t="shared" ref="BV4:BV36" si="11">IF(AM4-C4 &gt; 0, AM4-C4, "")</f>
         <v/>
       </c>
       <c r="BW4" t="str">
-        <f t="shared" ref="BW4:BW36" si="13">IF(AY4-AM4 &gt; 0,AY4-AM4, "")</f>
+        <f t="shared" ref="BW4:BW36" si="12">IF(AY4-AM4 &gt; 0,AY4-AM4, "")</f>
         <v/>
       </c>
       <c r="CA4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CC4" t="str">
         <f t="shared" si="0"/>
@@ -10738,11 +10711,11 @@
         <v/>
       </c>
       <c r="CF4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="CF4:CF36" si="13">IF(AZ4-AN4 &gt; 0,AZ4-AN4, "")</f>
         <v/>
       </c>
       <c r="CJ4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CL4" t="str">
         <f t="shared" ref="CL4:CL36" si="14">IF(AC4-Q4 &gt; 0, AC4-Q4, "")</f>
@@ -10766,40 +10739,40 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
       <c r="N5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O5">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="s">
         <v>9</v>
       </c>
       <c r="Z5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="AA5">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s">
         <v>9</v>
@@ -10814,53 +10787,53 @@
         <v>9</v>
       </c>
       <c r="BI5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BJ5">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="BK5">
         <f t="shared" si="4"/>
-        <v>2022</v>
-      </c>
-      <c r="BK5">
+        <v>2</v>
+      </c>
+      <c r="BL5">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL5">
+        <v>12</v>
+      </c>
+      <c r="BM5">
         <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BN5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BR5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="8"/>
+        <v>2039</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="BM5">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BN5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="BR5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS5">
-        <f t="shared" si="9"/>
-        <v>2036</v>
-      </c>
-      <c r="BT5">
+      <c r="BU5" t="str">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BU5" t="str">
+        <v/>
+      </c>
+      <c r="BV5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BV5" t="str">
+      <c r="BW5" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CC5" t="str">
         <f t="shared" si="0"/>
@@ -10875,11 +10848,11 @@
         <v/>
       </c>
       <c r="CF5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CL5" t="str">
         <f t="shared" si="14"/>
@@ -10902,29 +10875,23 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>2043</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="R6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
         <v>11</v>
       </c>
       <c r="Z6">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="AD6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
         <v>11</v>
@@ -10933,49 +10900,49 @@
         <v>11</v>
       </c>
       <c r="BI6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BJ6">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="BK6">
         <f t="shared" si="4"/>
-        <v>2033</v>
-      </c>
-      <c r="BK6">
+        <v>5</v>
+      </c>
+      <c r="BL6" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BL6">
+        <v/>
+      </c>
+      <c r="BM6" t="str">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BM6" t="str">
+        <v/>
+      </c>
+      <c r="BN6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BN6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="BR6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BT6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BU6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BU6" t="str">
+      <c r="BV6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BV6" t="str">
+      <c r="BW6" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CC6" t="str">
         <f t="shared" si="0"/>
@@ -10990,11 +10957,11 @@
         <v/>
       </c>
       <c r="CF6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CL6" t="str">
         <f t="shared" si="14"/>
@@ -11018,31 +10985,31 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C7">
-        <v>2028</v>
+        <v>2054</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
       </c>
       <c r="N7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="O7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="s">
         <v>12</v>
@@ -11051,13 +11018,13 @@
         <v>2015</v>
       </c>
       <c r="AA7">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="AD7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="s">
         <v>12</v>
@@ -11078,53 +11045,53 @@
         <v>85</v>
       </c>
       <c r="BI7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BJ7">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="BK7">
         <f t="shared" si="4"/>
-        <v>2013</v>
-      </c>
-      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL7">
+        <v>6</v>
+      </c>
+      <c r="BM7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="BN7">
+        <v>30</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS7">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS7">
+        <v>2021</v>
+      </c>
+      <c r="BT7">
         <f t="shared" si="9"/>
-        <v>2020</v>
-      </c>
-      <c r="BT7">
+        <v>5</v>
+      </c>
+      <c r="BU7">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BU7">
+        <v>28</v>
+      </c>
+      <c r="BV7" t="str">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="BV7" t="str">
+        <v/>
+      </c>
+      <c r="BW7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CC7" t="str">
         <f t="shared" si="0"/>
@@ -11139,11 +11106,11 @@
         <v/>
       </c>
       <c r="CF7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CL7" t="str">
         <f t="shared" si="14"/>
@@ -11167,22 +11134,22 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2026</v>
+        <v>2039</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
       </c>
       <c r="N8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O8">
         <v>2039</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
         <v>10</v>
@@ -11191,16 +11158,10 @@
         <v>15</v>
       </c>
       <c r="Z8">
-        <v>2023</v>
-      </c>
-      <c r="AA8">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="s">
         <v>15</v>
@@ -11209,59 +11170,59 @@
         <v>2072</v>
       </c>
       <c r="AP8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AW8" t="s">
         <v>15</v>
       </c>
       <c r="BI8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BJ8">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="BK8">
         <f t="shared" si="4"/>
-        <v>2021</v>
-      </c>
-      <c r="BK8">
+        <v>2</v>
+      </c>
+      <c r="BL8">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL8">
+        <v>15</v>
+      </c>
+      <c r="BM8">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="BM8">
+        <v>33</v>
+      </c>
+      <c r="BN8" t="str">
         <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="BN8" t="str">
+        <v/>
+      </c>
+      <c r="BR8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS8">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="BR8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BS8">
+        <v>2039</v>
+      </c>
+      <c r="BT8" t="str">
         <f t="shared" si="9"/>
-        <v>2039</v>
-      </c>
-      <c r="BT8" t="str">
+        <v/>
+      </c>
+      <c r="BU8" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BU8" t="str">
+      <c r="BV8" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BV8" t="str">
+      <c r="BW8" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW8" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CC8" t="str">
         <f t="shared" si="0"/>
@@ -11276,11 +11237,11 @@
         <v/>
       </c>
       <c r="CF8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="CL8" t="str">
         <f t="shared" si="14"/>
@@ -11304,28 +11265,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="C9">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
       </c>
       <c r="N9">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="O9">
         <v>2026</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
         <v>17</v>
@@ -11334,16 +11295,16 @@
         <v>16</v>
       </c>
       <c r="Z9">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="AA9">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="AD9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s">
         <v>16</v>
@@ -11364,53 +11325,53 @@
         <v>10</v>
       </c>
       <c r="BI9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BJ9">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="BK9">
         <f t="shared" si="4"/>
-        <v>2017</v>
-      </c>
-      <c r="BK9">
+        <v>3</v>
+      </c>
+      <c r="BL9">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS9">
+        <f t="shared" si="8"/>
+        <v>2026</v>
+      </c>
+      <c r="BT9">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="BN9">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS9">
-        <f t="shared" si="9"/>
-        <v>2026</v>
-      </c>
-      <c r="BT9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU9">
+      <c r="BV9" t="str">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="BV9" t="str">
+        <v/>
+      </c>
+      <c r="BW9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW9" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CC9" t="str">
         <f t="shared" si="0"/>
@@ -11425,11 +11386,11 @@
         <v/>
       </c>
       <c r="CF9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CL9" t="str">
         <f t="shared" si="14"/>
@@ -11452,12 +11413,6 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>2085</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
       <c r="M10" t="s">
         <v>18</v>
       </c>
@@ -11471,10 +11426,10 @@
         <v>18</v>
       </c>
       <c r="Z10">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="AD10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s">
         <v>18</v>
@@ -11483,49 +11438,49 @@
         <v>18</v>
       </c>
       <c r="BI10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BJ10">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="BK10">
         <f t="shared" si="4"/>
-        <v>2012</v>
-      </c>
-      <c r="BK10">
+        <v>3</v>
+      </c>
+      <c r="BL10" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL10">
+        <v/>
+      </c>
+      <c r="BM10" t="str">
         <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="BM10" t="str">
+        <v/>
+      </c>
+      <c r="BN10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BN10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="BR10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BT10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BU10" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BU10" t="str">
+      <c r="BV10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BV10" t="str">
+      <c r="BW10" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CC10" t="str">
         <f t="shared" si="0"/>
@@ -11540,11 +11495,11 @@
         <v/>
       </c>
       <c r="CF10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CL10" t="str">
         <f t="shared" si="14"/>
@@ -11568,28 +11523,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2049</v>
+        <v>2055</v>
       </c>
       <c r="C11">
-        <v>2062</v>
+        <v>2067</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
       <c r="N11">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="O11">
         <v>2055</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
         <v>20</v>
@@ -11598,16 +11553,16 @@
         <v>19</v>
       </c>
       <c r="Z11">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="AA11">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="AD11" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="AE11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="s">
         <v>19</v>
@@ -11628,53 +11583,53 @@
         <v>35</v>
       </c>
       <c r="BI11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BJ11">
+        <f t="shared" si="3"/>
+        <v>2036</v>
+      </c>
+      <c r="BK11">
         <f t="shared" si="4"/>
-        <v>2033</v>
-      </c>
-      <c r="BK11">
+        <v>8</v>
+      </c>
+      <c r="BL11">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BL11">
+        <v>11</v>
+      </c>
+      <c r="BM11">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BM11">
+        <v>2</v>
+      </c>
+      <c r="BN11">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="BN11">
+      <c r="BR11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS11">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>134</v>
-      </c>
-      <c r="BS11">
+        <v>2055</v>
+      </c>
+      <c r="BT11">
         <f t="shared" si="9"/>
-        <v>2055</v>
-      </c>
-      <c r="BT11" t="str">
+        <v>2</v>
+      </c>
+      <c r="BU11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BU11">
+        <v>10</v>
+      </c>
+      <c r="BV11" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="BV11" t="str">
+        <v/>
+      </c>
+      <c r="BW11" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CC11" t="str">
         <f t="shared" si="0"/>
@@ -11689,11 +11644,11 @@
         <v/>
       </c>
       <c r="CF11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CL11" t="str">
         <f t="shared" si="14"/>
@@ -11717,52 +11672,52 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="C12">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="N12">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="O12">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="P12">
         <v>2091</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
         <v>22</v>
       </c>
       <c r="Z12">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="AA12">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="AD12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="AE12" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="s">
         <v>22</v>
@@ -11771,13 +11726,13 @@
         <v>2054</v>
       </c>
       <c r="AM12">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="AP12" t="s">
         <v>14</v>
       </c>
       <c r="AQ12" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="AW12" t="s">
         <v>22</v>
@@ -11792,59 +11747,59 @@
         <v>27</v>
       </c>
       <c r="BC12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BI12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BJ12">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="BK12">
         <f t="shared" si="4"/>
-        <v>2013</v>
-      </c>
-      <c r="BK12">
+        <v>5</v>
+      </c>
+      <c r="BL12">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="BL12">
+        <v>17</v>
+      </c>
+      <c r="BM12">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="BM12">
+        <v>5</v>
+      </c>
+      <c r="BN12">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="BN12">
+        <v>3</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS12">
         <f t="shared" si="8"/>
+        <v>2049</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="BR12" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS12">
-        <f t="shared" si="9"/>
-        <v>2047</v>
-      </c>
-      <c r="BT12">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BU12">
+      <c r="BV12">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="BV12">
+        <v>31</v>
+      </c>
+      <c r="BW12">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="BW12">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="CB12">
-        <f t="shared" ref="CB12:CB36" si="18">P12</f>
+        <f t="shared" ref="CB4:CB36" si="18">P12</f>
         <v>2091</v>
       </c>
       <c r="CC12" t="str">
@@ -11860,11 +11815,11 @@
         <v/>
       </c>
       <c r="CF12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="CL12" t="str">
         <f t="shared" si="14"/>
@@ -11888,28 +11843,28 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>2035</v>
+        <v>2046</v>
       </c>
       <c r="C13">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
         <v>25</v>
       </c>
       <c r="N13">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="O13">
         <v>2046</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
@@ -11918,16 +11873,16 @@
         <v>25</v>
       </c>
       <c r="Z13">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="AA13">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="AD13" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AE13" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="s">
         <v>25</v>
@@ -11936,13 +11891,13 @@
         <v>2049</v>
       </c>
       <c r="AM13">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="AP13" t="s">
         <v>23</v>
       </c>
       <c r="AQ13" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="AW13" t="s">
         <v>25</v>
@@ -11954,53 +11909,53 @@
         <v>42</v>
       </c>
       <c r="BI13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BJ13">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="BK13">
         <f t="shared" si="4"/>
-        <v>2013</v>
-      </c>
-      <c r="BK13">
+        <v>6</v>
+      </c>
+      <c r="BL13">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="BL13">
+        <v>18</v>
+      </c>
+      <c r="BM13">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BM13">
+        <v>3</v>
+      </c>
+      <c r="BN13">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="BN13">
+        <v>7</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS13">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS13">
+        <v>2046</v>
+      </c>
+      <c r="BT13">
         <f t="shared" si="9"/>
-        <v>2046</v>
-      </c>
-      <c r="BT13">
+        <v>8</v>
+      </c>
+      <c r="BU13">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU13">
+        <v>3</v>
+      </c>
+      <c r="BV13">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="BV13">
+        <v>31</v>
+      </c>
+      <c r="BW13" t="str">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="BW13" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CC13" t="str">
         <f t="shared" si="0"/>
@@ -12015,11 +11970,11 @@
         <v/>
       </c>
       <c r="CF13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CL13" t="str">
         <f t="shared" si="14"/>
@@ -12043,46 +11998,46 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="C14">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
       </c>
       <c r="N14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O14">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="R14" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="s">
         <v>28</v>
       </c>
       <c r="Z14">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="AA14">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="AD14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AE14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="s">
         <v>28</v>
@@ -12090,15 +12045,9 @@
       <c r="AL14">
         <v>2052</v>
       </c>
-      <c r="AM14">
-        <v>2085</v>
-      </c>
       <c r="AP14" t="s">
         <v>32</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>109</v>
-      </c>
       <c r="AW14" t="s">
         <v>28</v>
       </c>
@@ -12109,53 +12058,53 @@
         <v>27</v>
       </c>
       <c r="BI14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BJ14">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="BK14">
         <f t="shared" si="4"/>
-        <v>2021</v>
-      </c>
-      <c r="BK14">
+        <v>8</v>
+      </c>
+      <c r="BL14">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL14">
+        <v>19</v>
+      </c>
+      <c r="BM14">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="BM14">
+        <v>3</v>
+      </c>
+      <c r="BN14">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="BN14">
+        <v>5</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS14">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS14">
+        <v>2050</v>
+      </c>
+      <c r="BT14">
         <f t="shared" si="9"/>
-        <v>2046</v>
-      </c>
-      <c r="BT14">
+        <v>4</v>
+      </c>
+      <c r="BU14">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BU14">
+        <v>6</v>
+      </c>
+      <c r="BV14" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="BV14">
+        <v/>
+      </c>
+      <c r="BW14" t="str">
         <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="BW14" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CC14" t="str">
         <f t="shared" si="0"/>
@@ -12170,11 +12119,11 @@
         <v/>
       </c>
       <c r="CF14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CL14" t="str">
         <f t="shared" si="14"/>
@@ -12198,55 +12147,55 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="C15">
-        <v>2046</v>
+        <v>2052</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
       </c>
       <c r="N15">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="O15">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="P15">
         <v>2075</v>
       </c>
       <c r="R15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="S15" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="T15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y15" t="s">
         <v>30</v>
       </c>
       <c r="Z15">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="AA15">
-        <v>2033</v>
+        <v>2042</v>
       </c>
       <c r="AB15">
         <v>2083</v>
       </c>
       <c r="AD15" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="s">
         <v>58</v>
@@ -12255,16 +12204,16 @@
         <v>30</v>
       </c>
       <c r="AL15">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AM15">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="AP15" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AQ15" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="s">
         <v>30</v>
@@ -12279,59 +12228,59 @@
         <v>74</v>
       </c>
       <c r="BC15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BI15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BJ15">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="BK15">
         <f t="shared" si="4"/>
-        <v>2014</v>
-      </c>
-      <c r="BK15">
+        <v>7</v>
+      </c>
+      <c r="BL15">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL15">
+        <v>9</v>
+      </c>
+      <c r="BM15">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="BM15">
+        <v>9</v>
+      </c>
+      <c r="BN15">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BN15">
+        <v>10</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS15">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS15">
+        <v>2033</v>
+      </c>
+      <c r="BT15">
         <f t="shared" si="9"/>
-        <v>2030</v>
-      </c>
-      <c r="BT15">
+        <v>9</v>
+      </c>
+      <c r="BU15">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="BU15">
+        <v>10</v>
+      </c>
+      <c r="BV15">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="BV15">
+        <v>8</v>
+      </c>
+      <c r="BW15">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BW15">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CA15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="CB15">
-        <f>P15</f>
+        <f t="shared" si="18"/>
         <v>2075</v>
       </c>
       <c r="CC15">
@@ -12347,11 +12296,11 @@
         <v/>
       </c>
       <c r="CF15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="CL15" t="str">
         <f t="shared" si="14"/>
@@ -12375,22 +12324,22 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="C16">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
       </c>
       <c r="N16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O16">
         <v>2031</v>
@@ -12399,7 +12348,7 @@
         <v>2076</v>
       </c>
       <c r="R16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="S16" t="s">
         <v>34</v>
@@ -12411,16 +12360,16 @@
         <v>33</v>
       </c>
       <c r="Z16">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="AA16">
-        <v>2036</v>
+        <v>2063</v>
       </c>
       <c r="AD16" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AK16" t="s">
         <v>33</v>
@@ -12429,13 +12378,13 @@
         <v>2040</v>
       </c>
       <c r="AM16">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AP16" t="s">
         <v>66</v>
       </c>
       <c r="AQ16" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AW16" t="s">
         <v>33</v>
@@ -12444,62 +12393,62 @@
         <v>2065</v>
       </c>
       <c r="AY16">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="BB16" t="s">
         <v>35</v>
       </c>
       <c r="BC16" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="BI16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BJ16">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="BK16">
         <f t="shared" si="4"/>
-        <v>2018</v>
-      </c>
-      <c r="BK16">
+        <v>2</v>
+      </c>
+      <c r="BL16">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL16">
+        <v>10</v>
+      </c>
+      <c r="BM16">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="BM16">
+        <v>9</v>
+      </c>
+      <c r="BN16">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="BN16">
+        <v>25</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS16">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS16">
+        <v>2031</v>
+      </c>
+      <c r="BT16">
         <f t="shared" si="9"/>
-        <v>2031</v>
-      </c>
-      <c r="BT16">
+        <v>32</v>
+      </c>
+      <c r="BU16">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="BU16">
+        <v>2</v>
+      </c>
+      <c r="BV16">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="BV16">
+        <v>7</v>
+      </c>
+      <c r="BW16">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="BW16">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="CB16">
         <f t="shared" si="18"/>
@@ -12518,11 +12467,11 @@
         <v/>
       </c>
       <c r="CF16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="CL16" t="str">
         <f t="shared" si="14"/>
@@ -12546,46 +12495,46 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="C17">
-        <v>2066</v>
+        <v>2072</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
         <v>36</v>
       </c>
       <c r="N17">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O17">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
       </c>
       <c r="Z17">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="AA17">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="AD17" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s">
         <v>36</v>
@@ -12606,53 +12555,53 @@
         <v>77</v>
       </c>
       <c r="BI17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BJ17">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="BK17">
         <f t="shared" si="4"/>
-        <v>2025</v>
-      </c>
-      <c r="BK17">
+        <v>3</v>
+      </c>
+      <c r="BL17">
         <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="BL17">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="BM17">
+      <c r="BN17">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BN17">
+        <v>31</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS17">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS17">
+        <v>2038</v>
+      </c>
+      <c r="BT17">
         <f t="shared" si="9"/>
-        <v>2037</v>
-      </c>
-      <c r="BT17">
+        <v>4</v>
+      </c>
+      <c r="BU17">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU17">
+        <v>30</v>
+      </c>
+      <c r="BV17" t="str">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="BV17" t="str">
+        <v/>
+      </c>
+      <c r="BW17" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW17" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="CC17" t="str">
         <f t="shared" si="0"/>
@@ -12667,11 +12616,11 @@
         <v/>
       </c>
       <c r="CF17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="CL17" t="str">
         <f t="shared" si="14"/>
@@ -12695,52 +12644,52 @@
         <v>39</v>
       </c>
       <c r="B18">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="C18">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
         <v>39</v>
       </c>
       <c r="N18">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="O18">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="P18">
         <v>2079</v>
       </c>
       <c r="R18" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y18" t="s">
         <v>39</v>
       </c>
       <c r="Z18">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="AA18">
-        <v>2038</v>
+        <v>2047</v>
       </c>
       <c r="AD18" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s">
         <v>39</v>
@@ -12755,7 +12704,7 @@
         <v>84</v>
       </c>
       <c r="AQ18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AW18" t="s">
         <v>39</v>
@@ -12770,56 +12719,56 @@
         <v>46</v>
       </c>
       <c r="BC18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BI18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BJ18">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="BK18">
         <f t="shared" si="4"/>
-        <v>2024</v>
-      </c>
-      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BL18">
+        <v>7</v>
+      </c>
+      <c r="BM18">
         <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS18">
+        <f t="shared" si="8"/>
+        <v>2038</v>
+      </c>
+      <c r="BT18">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BU18">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="BV18">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BW18">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="BM18">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="BN18">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS18">
-        <f t="shared" si="9"/>
-        <v>2036</v>
-      </c>
-      <c r="BT18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BU18">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="BV18">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="BW18">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
       <c r="CA18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="CB18">
         <f t="shared" si="18"/>
@@ -12838,11 +12787,11 @@
         <v/>
       </c>
       <c r="CF18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="CL18" t="str">
         <f t="shared" si="14"/>
@@ -12866,40 +12815,34 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="C19">
-        <v>2044</v>
-      </c>
-      <c r="D19">
-        <v>2079</v>
+        <v>2047</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s">
         <v>41</v>
       </c>
       <c r="N19">
-        <v>2009</v>
+        <v>2025</v>
       </c>
       <c r="O19">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="P19">
         <v>2070</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s">
         <v>40</v>
@@ -12908,19 +12851,19 @@
         <v>41</v>
       </c>
       <c r="Z19">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="AA19">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="AB19">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="AD19" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="AE19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AF19" t="s">
         <v>121</v>
@@ -12932,13 +12875,13 @@
         <v>2041</v>
       </c>
       <c r="AM19">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="AP19" t="s">
         <v>45</v>
       </c>
       <c r="AQ19" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AW19" t="s">
         <v>41</v>
@@ -12956,53 +12899,53 @@
         <v>40</v>
       </c>
       <c r="BI19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BJ19">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="BK19">
         <f t="shared" si="4"/>
-        <v>2009</v>
-      </c>
-      <c r="BK19">
+        <v>5</v>
+      </c>
+      <c r="BL19">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="BL19">
+        <v>7</v>
+      </c>
+      <c r="BM19">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="BM19">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BN19">
+      <c r="BR19" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS19">
         <f t="shared" si="8"/>
+        <v>2038</v>
+      </c>
+      <c r="BT19">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BU19">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="BR19" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS19">
-        <f t="shared" si="9"/>
-        <v>2036</v>
-      </c>
-      <c r="BT19">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BU19">
+      <c r="BV19">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="BV19">
+        <v>22</v>
+      </c>
+      <c r="BW19">
         <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="BW19">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CB19">
         <f t="shared" si="18"/>
@@ -13010,22 +12953,22 @@
       </c>
       <c r="CC19">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="CD19">
+        <v>5</v>
+      </c>
+      <c r="CD19" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="CE19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CF19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CL19" t="str">
         <f t="shared" si="14"/>
@@ -13049,61 +12992,61 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C20">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="D20">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
       </c>
       <c r="N20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="O20">
         <v>2025</v>
       </c>
       <c r="P20">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S20" t="s">
         <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="Y20" t="s">
         <v>43</v>
       </c>
       <c r="Z20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AA20">
-        <v>2026</v>
+        <v>2032</v>
       </c>
       <c r="AB20">
         <v>2055</v>
       </c>
       <c r="AD20" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AE20" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AF20" t="s">
         <v>20</v>
@@ -13115,100 +13058,100 @@
         <v>2030</v>
       </c>
       <c r="AM20">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AP20" t="s">
         <v>69</v>
       </c>
       <c r="AQ20" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="s">
         <v>43</v>
       </c>
       <c r="AX20">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="AY20">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="BB20" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="BC20" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="BI20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BJ20">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="BK20">
         <f t="shared" si="4"/>
-        <v>2015</v>
-      </c>
-      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL20">
+        <v>8</v>
+      </c>
+      <c r="BM20">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BM20">
+        <v>5</v>
+      </c>
+      <c r="BN20">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="BN20">
+        <v>6</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS20">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS20">
+        <v>2025</v>
+      </c>
+      <c r="BT20">
         <f t="shared" si="9"/>
-        <v>2025</v>
-      </c>
-      <c r="BT20">
+        <v>7</v>
+      </c>
+      <c r="BU20">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU20">
+        <v>8</v>
+      </c>
+      <c r="BV20">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="BV20">
+        <v>6</v>
+      </c>
+      <c r="BW20">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="BW20">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CA20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="CB20">
         <f t="shared" si="18"/>
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="CC20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CD20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CE20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CF20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="CL20" t="str">
         <f t="shared" si="14"/>
@@ -13232,40 +13175,40 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="C21">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="D21">
-        <v>2064</v>
+        <v>2070</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
       </c>
       <c r="N21">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="O21">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="P21">
         <v>2058</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -13274,34 +13217,34 @@
         <v>47</v>
       </c>
       <c r="Z21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="AA21">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="AB21">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AD21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AF21" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AK21" t="s">
         <v>47</v>
       </c>
       <c r="AL21">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="AM21">
         <v>2053</v>
       </c>
       <c r="AP21" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AQ21" t="s">
         <v>85</v>
@@ -13322,53 +13265,53 @@
         <v>24</v>
       </c>
       <c r="BI21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BJ21">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="BK21">
         <f t="shared" si="4"/>
-        <v>2012</v>
-      </c>
-      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BL21">
+        <v>11</v>
+      </c>
+      <c r="BM21">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="BM21">
+        <v>6</v>
+      </c>
+      <c r="BN21">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="BN21">
+        <v>6</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS21">
         <f t="shared" si="8"/>
+        <v>2027</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BU21">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="BR21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS21">
-        <f t="shared" si="9"/>
-        <v>2026</v>
-      </c>
-      <c r="BT21">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU21">
+      <c r="BV21">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="BV21">
+        <v>10</v>
+      </c>
+      <c r="BW21">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="BW21">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="CA21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CB21">
         <f t="shared" si="18"/>
@@ -13376,22 +13319,22 @@
       </c>
       <c r="CC21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD21">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CE21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CF21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CL21" t="str">
         <f t="shared" si="14"/>
@@ -13415,55 +13358,55 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="C22">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s">
         <v>50</v>
       </c>
       <c r="N22">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="O22">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="R22" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="s">
         <v>50</v>
       </c>
       <c r="Z22">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="AA22">
-        <v>2040</v>
+        <v>2080</v>
       </c>
       <c r="AD22" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s">
         <v>50</v>
       </c>
       <c r="AL22">
-        <v>2058</v>
+        <v>2067</v>
       </c>
       <c r="AP22" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AW22" t="s">
         <v>50</v>
@@ -13472,56 +13415,56 @@
         <v>2084</v>
       </c>
       <c r="BB22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BJ22">
+        <f t="shared" si="3"/>
+        <v>2029</v>
+      </c>
+      <c r="BK22">
         <f t="shared" si="4"/>
-        <v>2026</v>
-      </c>
-      <c r="BK22">
+        <v>2</v>
+      </c>
+      <c r="BL22">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BL22">
+        <v>8</v>
+      </c>
+      <c r="BM22">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BM22">
+        <v>28</v>
+      </c>
+      <c r="BN22">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="BN22">
+        <v>17</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS22">
         <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BS22">
+        <v>2039</v>
+      </c>
+      <c r="BT22">
         <f t="shared" si="9"/>
-        <v>2038</v>
-      </c>
-      <c r="BT22">
+        <v>41</v>
+      </c>
+      <c r="BU22">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BU22">
+        <v>8</v>
+      </c>
+      <c r="BV22" t="str">
         <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="BV22" t="str">
+        <v/>
+      </c>
+      <c r="BW22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BW22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="CA22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="CC22" t="str">
         <f t="shared" si="0"/>
@@ -13536,11 +13479,11 @@
         <v/>
       </c>
       <c r="CF22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="CL22" t="str">
         <f t="shared" si="14"/>
@@ -13564,46 +13507,46 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="C23">
-        <v>2039</v>
+        <v>2070</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
         <v>52</v>
       </c>
       <c r="N23">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="O23">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="R23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
         <v>52</v>
       </c>
       <c r="Z23">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="AA23">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="AD23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="AK23" t="s">
         <v>52</v>
@@ -13618,65 +13561,65 @@
         <v>37</v>
       </c>
       <c r="AQ23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW23" t="s">
         <v>52</v>
       </c>
       <c r="AX23">
-        <v>2068</v>
+        <v>2060</v>
       </c>
       <c r="BB23" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="BI23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BJ23">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="BK23">
         <f t="shared" si="4"/>
-        <v>2021</v>
-      </c>
-      <c r="BK23">
+        <v>2</v>
+      </c>
+      <c r="BL23">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BM23">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="BN23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS23">
+        <f t="shared" si="8"/>
+        <v>2034</v>
+      </c>
+      <c r="BT23">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="BL23">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BM23">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BN23">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS23">
-        <f t="shared" si="9"/>
-        <v>2032</v>
-      </c>
-      <c r="BT23">
+      <c r="BU23">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BU23">
+        <v>32</v>
+      </c>
+      <c r="BV23">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="BV23">
+        <v>14</v>
+      </c>
+      <c r="BW23" t="str">
         <f t="shared" si="12"/>
-        <v>45</v>
-      </c>
-      <c r="BW23" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CA23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="CC23" t="str">
         <f t="shared" si="0"/>
@@ -13691,11 +13634,11 @@
         <v/>
       </c>
       <c r="CF23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="CJ23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="CL23" t="str">
         <f t="shared" si="14"/>
@@ -13719,28 +13662,28 @@
         <v>54</v>
       </c>
       <c r="B24">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="C24">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="D24">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M24" t="s">
         <v>54</v>
       </c>
       <c r="N24">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="O24">
         <v>2042</v>
@@ -13749,10 +13692,10 @@
         <v>2066</v>
       </c>
       <c r="Q24">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="R24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s">
         <v>55</v>
@@ -13761,34 +13704,34 @@
         <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Y24" t="s">
         <v>54</v>
       </c>
       <c r="Z24">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="AA24">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="AB24">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="AC24">
         <v>2091</v>
       </c>
       <c r="AD24" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="AF24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s">
         <v>54</v>
@@ -13797,7 +13740,7 @@
         <v>2045</v>
       </c>
       <c r="AM24">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="AN24">
         <v>2083</v>
@@ -13806,7 +13749,7 @@
         <v>84</v>
       </c>
       <c r="AQ24" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AR24" t="s">
         <v>58</v>
@@ -13818,7 +13761,7 @@
         <v>2054</v>
       </c>
       <c r="AY24">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="AZ24">
         <v>2086</v>
@@ -13827,59 +13770,59 @@
         <v>14</v>
       </c>
       <c r="BC24" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="BD24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BI24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BJ24">
+        <f t="shared" si="3"/>
+        <v>2029</v>
+      </c>
+      <c r="BK24">
         <f t="shared" si="4"/>
-        <v>2028</v>
-      </c>
-      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL24">
+        <v>11</v>
+      </c>
+      <c r="BM24">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BM24">
+        <v>3</v>
+      </c>
+      <c r="BN24">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="BN24">
+      <c r="BR24" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS24">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS24">
+        <v>2042</v>
+      </c>
+      <c r="BT24">
         <f t="shared" si="9"/>
-        <v>2042</v>
-      </c>
-      <c r="BT24">
+        <v>5</v>
+      </c>
+      <c r="BU24">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU24">
+        <v>8</v>
+      </c>
+      <c r="BV24">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="BV24">
+        <v>7</v>
+      </c>
+      <c r="BW24">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="BW24">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CA24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CB24">
         <f t="shared" si="18"/>
@@ -13887,30 +13830,30 @@
       </c>
       <c r="CC24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE24">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CF24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="CJ24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CK24">
-        <f t="shared" ref="CK24:CK35" si="19">Q24</f>
-        <v>2087</v>
+        <f t="shared" ref="CK4:CK36" si="19">Q24</f>
+        <v>2090</v>
       </c>
       <c r="CL24">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM24" t="str">
         <f t="shared" si="15"/>
@@ -13930,28 +13873,28 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="C25">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D25">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E25">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s">
         <v>56</v>
@@ -13960,34 +13903,34 @@
         <v>2019</v>
       </c>
       <c r="O25">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="P25">
         <v>2056</v>
       </c>
       <c r="Q25">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="R25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s">
         <v>42</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s">
         <v>56</v>
       </c>
       <c r="Z25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AA25">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="AB25">
         <v>2059</v>
@@ -13996,16 +13939,16 @@
         <v>2079</v>
       </c>
       <c r="AD25" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AF25" t="s">
         <v>67</v>
       </c>
       <c r="AG25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s">
         <v>56</v>
@@ -14020,7 +13963,7 @@
         <v>2069</v>
       </c>
       <c r="AO25">
-        <v>2083</v>
+        <v>2090</v>
       </c>
       <c r="AP25" t="s">
         <v>55</v>
@@ -14032,7 +13975,7 @@
         <v>46</v>
       </c>
       <c r="AS25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="s">
         <v>56</v>
@@ -14041,7 +13984,7 @@
         <v>2047</v>
       </c>
       <c r="AY25">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="AZ25">
         <v>2077</v>
@@ -14050,59 +13993,59 @@
         <v>96</v>
       </c>
       <c r="BC25" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="s">
         <v>63</v>
       </c>
       <c r="BI25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BJ25">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="BK25">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="BK25">
+        <v>2</v>
+      </c>
+      <c r="BL25">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL25">
+        <v>16</v>
+      </c>
+      <c r="BM25">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="BM25">
+        <v>5</v>
+      </c>
+      <c r="BN25">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="BN25">
+        <v>5</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS25">
         <f t="shared" si="8"/>
+        <v>2038</v>
+      </c>
+      <c r="BT25">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="BR25" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS25">
-        <f t="shared" si="9"/>
-        <v>2037</v>
-      </c>
-      <c r="BT25">
+      <c r="BU25">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU25">
+        <v>4</v>
+      </c>
+      <c r="BV25">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="BV25">
+      <c r="BW25">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BW25">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CB25">
         <f t="shared" si="18"/>
@@ -14114,34 +14057,34 @@
       </c>
       <c r="CD25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CE25">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="CJ25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CK25">
         <f t="shared" si="19"/>
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="CL25">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="CM25" t="str">
+        <v>1</v>
+      </c>
+      <c r="CM25">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="CN25">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CO25" t="str">
         <f t="shared" si="17"/>
@@ -14153,34 +14096,34 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="C26">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="D26">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="E26">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
         <v>59</v>
       </c>
       <c r="N26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O26">
         <v>2032</v>
@@ -14189,10 +14132,10 @@
         <v>2054</v>
       </c>
       <c r="Q26">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="R26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="S26" t="s">
         <v>31</v>
@@ -14201,16 +14144,16 @@
         <v>14</v>
       </c>
       <c r="U26" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="Y26" t="s">
         <v>59</v>
       </c>
       <c r="Z26">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="AA26">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="AB26">
         <v>2056</v>
@@ -14219,10 +14162,10 @@
         <v>2073</v>
       </c>
       <c r="AD26" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AE26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s">
         <v>42</v>
@@ -14234,7 +14177,7 @@
         <v>59</v>
       </c>
       <c r="AL26">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="AM26">
         <v>2053</v>
@@ -14243,10 +14186,10 @@
         <v>2066</v>
       </c>
       <c r="AO26">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="AP26" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AQ26" t="s">
         <v>85</v>
@@ -14255,7 +14198,7 @@
         <v>57</v>
       </c>
       <c r="AS26" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AW26" t="s">
         <v>59</v>
@@ -14270,7 +14213,7 @@
         <v>2070</v>
       </c>
       <c r="BA26">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="BB26" t="s">
         <v>49</v>
@@ -14282,56 +14225,56 @@
         <v>40</v>
       </c>
       <c r="BE26" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="BI26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BJ26">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="BK26">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="BK26">
+        <v>4</v>
+      </c>
+      <c r="BL26">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL26">
+        <v>8</v>
+      </c>
+      <c r="BM26">
         <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS26">
+        <f t="shared" si="8"/>
+        <v>2032</v>
+      </c>
+      <c r="BT26">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BU26">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="BV26">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="BM26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="BN26">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS26">
-        <f t="shared" si="9"/>
-        <v>2032</v>
-      </c>
-      <c r="BT26" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BU26">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="BV26">
+      <c r="BW26">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BW26">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="CA26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="CB26">
         <f t="shared" si="18"/>
@@ -14343,38 +14286,38 @@
       </c>
       <c r="CD26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE26">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CF26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="CJ26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="CK26">
         <f t="shared" si="19"/>
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="CL26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM26">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CN26">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CO26">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:93" x14ac:dyDescent="0.2">
@@ -14382,64 +14325,64 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="C27">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="D27">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="E27">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s">
         <v>62</v>
       </c>
       <c r="N27">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O27">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="P27">
         <v>2067</v>
       </c>
       <c r="Q27">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="S27" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s">
         <v>80</v>
       </c>
       <c r="U27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y27" t="s">
         <v>62</v>
       </c>
       <c r="Z27">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="AA27">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="AB27">
         <v>2073</v>
@@ -14448,16 +14391,16 @@
         <v>2085</v>
       </c>
       <c r="AD27" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="AE27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AF27" t="s">
         <v>38</v>
       </c>
       <c r="AG27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AK27" t="s">
         <v>62</v>
@@ -14466,95 +14409,89 @@
         <v>2042</v>
       </c>
       <c r="AM27">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="AN27">
         <v>2081</v>
       </c>
-      <c r="AO27">
-        <v>2090</v>
-      </c>
       <c r="AP27" t="s">
         <v>55</v>
       </c>
       <c r="AQ27" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR27" t="s">
         <v>88</v>
       </c>
-      <c r="AS27" t="s">
-        <v>51</v>
-      </c>
       <c r="AW27" t="s">
         <v>62</v>
       </c>
       <c r="AX27">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="AY27">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="AZ27">
         <v>2084</v>
       </c>
       <c r="BB27" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="BC27" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="BD27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BJ27">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="BK27">
         <f t="shared" si="4"/>
-        <v>2025</v>
-      </c>
-      <c r="BK27">
+        <v>4</v>
+      </c>
+      <c r="BL27">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="BM27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS27">
+        <f t="shared" si="8"/>
+        <v>2041</v>
+      </c>
+      <c r="BT27">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="BL27">
-        <f t="shared" si="6"/>
+      <c r="BU27">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="BV27">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="BM27">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="BN27">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>150</v>
-      </c>
-      <c r="BS27">
-        <f t="shared" si="9"/>
-        <v>2040</v>
-      </c>
-      <c r="BT27">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU27">
-        <f t="shared" si="11"/>
+      <c r="BW27">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="BV27">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BW27">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
       <c r="CA27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB27">
         <f t="shared" si="18"/>
@@ -14566,34 +14503,34 @@
       </c>
       <c r="CD27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE27">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="CJ27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CK27">
         <f t="shared" si="19"/>
-        <v>2084</v>
-      </c>
-      <c r="CL27">
+        <v>2085</v>
+      </c>
+      <c r="CL27" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="CM27">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="CN27">
+        <v>4</v>
+      </c>
+      <c r="CN27" t="str">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="CO27" t="str">
         <f t="shared" si="17"/>
@@ -14605,34 +14542,34 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="C28">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="D28">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="E28">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
         <v>64</v>
       </c>
       <c r="N28">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="O28">
         <v>2028</v>
@@ -14641,46 +14578,46 @@
         <v>2044</v>
       </c>
       <c r="Q28">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="R28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S28" t="s">
         <v>65</v>
       </c>
       <c r="T28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U28" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>64</v>
       </c>
       <c r="Z28">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="AA28">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="AB28">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="AC28">
         <v>2074</v>
       </c>
       <c r="AD28" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="AF28" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK28" t="s">
         <v>64</v>
@@ -14695,7 +14632,7 @@
         <v>2067</v>
       </c>
       <c r="AO28">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="AP28" t="s">
         <v>31</v>
@@ -14707,7 +14644,7 @@
         <v>80</v>
       </c>
       <c r="AS28" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="AW28" t="s">
         <v>64</v>
@@ -14722,68 +14659,68 @@
         <v>2072</v>
       </c>
       <c r="BA28">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="BB28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BC28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BD28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BE28" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="BI28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BJ28">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="BK28">
         <f t="shared" si="4"/>
-        <v>2014</v>
-      </c>
-      <c r="BK28">
+        <v>8</v>
+      </c>
+      <c r="BL28">
         <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BM28">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BN28">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS28">
+        <f t="shared" si="8"/>
+        <v>2028</v>
+      </c>
+      <c r="BT28">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BU28">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="BV28">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="BL28">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="BM28">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BN28">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>151</v>
-      </c>
-      <c r="BS28">
-        <f t="shared" si="9"/>
-        <v>2028</v>
-      </c>
-      <c r="BT28">
-        <f t="shared" si="10"/>
+      <c r="BW28">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="BU28">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="BV28">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BW28">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
       <c r="CA28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CB28">
         <f t="shared" si="18"/>
@@ -14791,42 +14728,42 @@
       </c>
       <c r="CC28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CD28">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CE28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CF28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="CJ28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CK28">
         <f t="shared" si="19"/>
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="CL28">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM28">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CO28">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.2">
@@ -14834,28 +14771,28 @@
         <v>68</v>
       </c>
       <c r="B29">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="C29">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D29">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E29">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
         <v>68</v>
@@ -14864,52 +14801,52 @@
         <v>2017</v>
       </c>
       <c r="O29">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="P29">
         <v>2066</v>
       </c>
       <c r="Q29">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="R29" t="s">
         <v>94</v>
       </c>
       <c r="S29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="T29" t="s">
         <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s">
         <v>68</v>
       </c>
       <c r="Z29">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="AA29">
-        <v>2030</v>
+        <v>2044</v>
       </c>
       <c r="AB29">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="AC29">
         <v>2082</v>
       </c>
       <c r="AD29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE29" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AF29" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s">
         <v>68</v>
@@ -14921,22 +14858,16 @@
         <v>2064</v>
       </c>
       <c r="AN29">
-        <v>2075</v>
-      </c>
-      <c r="AO29">
-        <v>2087</v>
+        <v>2076</v>
       </c>
       <c r="AP29" t="s">
         <v>76</v>
       </c>
       <c r="AQ29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AR29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="s">
         <v>68</v>
@@ -14960,53 +14891,53 @@
         <v>61</v>
       </c>
       <c r="BI29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ29">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="BK29">
         <f t="shared" si="4"/>
-        <v>2017</v>
-      </c>
-      <c r="BK29">
+        <v>3</v>
+      </c>
+      <c r="BL29">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL29">
+        <v>10</v>
+      </c>
+      <c r="BM29">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BM29">
+        <v>5</v>
+      </c>
+      <c r="BN29">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="BN29">
+        <v>22</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS29">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS29">
+        <v>2030</v>
+      </c>
+      <c r="BT29">
         <f t="shared" si="9"/>
-        <v>2028</v>
-      </c>
-      <c r="BT29">
+        <v>14</v>
+      </c>
+      <c r="BU29">
         <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="BV29">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="BW29">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="BU29">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="BV29">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BW29">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
       <c r="CA29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CB29">
         <f t="shared" si="18"/>
@@ -15014,7 +14945,7 @@
       </c>
       <c r="CC29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD29">
         <f t="shared" si="1"/>
@@ -15025,27 +14956,27 @@
         <v>3</v>
       </c>
       <c r="CF29">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="CJ29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CK29">
         <f t="shared" si="19"/>
-        <v>2080</v>
-      </c>
-      <c r="CL29">
+        <v>2082</v>
+      </c>
+      <c r="CL29" t="str">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="CM29" t="str">
+        <v/>
+      </c>
+      <c r="CM29">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="CN29">
+        <v>1</v>
+      </c>
+      <c r="CN29" t="str">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="CO29" t="str">
         <f t="shared" si="17"/>
@@ -15057,64 +14988,58 @@
         <v>71</v>
       </c>
       <c r="B30">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="C30">
-        <v>2043</v>
+        <v>2052</v>
       </c>
       <c r="D30">
-        <v>2075</v>
-      </c>
-      <c r="E30">
-        <v>2088</v>
+        <v>2077</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s">
         <v>71</v>
       </c>
       <c r="N30">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="O30">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="P30">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="Q30">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="R30" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="S30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y30" t="s">
         <v>71</v>
       </c>
       <c r="Z30">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="AA30">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="AB30">
         <v>2070</v>
@@ -15123,16 +15048,16 @@
         <v>2086</v>
       </c>
       <c r="AD30" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AE30" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AF30" t="s">
         <v>40</v>
       </c>
       <c r="AG30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="s">
         <v>71</v>
@@ -15150,7 +15075,7 @@
         <v>89</v>
       </c>
       <c r="AQ30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AR30" t="s">
         <v>88</v>
@@ -15162,7 +15087,7 @@
         <v>2045</v>
       </c>
       <c r="AY30">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="AZ30">
         <v>2085</v>
@@ -15171,94 +15096,94 @@
         <v>84</v>
       </c>
       <c r="BC30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="BD30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BI30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BJ30">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="BK30">
         <f t="shared" si="4"/>
-        <v>2015</v>
-      </c>
-      <c r="BK30">
+        <v>2</v>
+      </c>
+      <c r="BL30">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL30">
+        <v>10</v>
+      </c>
+      <c r="BM30">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BN30">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS30">
+        <f t="shared" si="8"/>
+        <v>2030</v>
+      </c>
+      <c r="BT30">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="BU30">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BV30">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="BM30">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="BN30">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS30">
-        <f t="shared" si="9"/>
-        <v>2029</v>
-      </c>
-      <c r="BT30">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU30">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="BV30">
+      <c r="BW30">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="BW30">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CB30">
         <f t="shared" si="18"/>
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="CC30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CE30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CF30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="CJ30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CK30">
         <f t="shared" si="19"/>
-        <v>2085</v>
-      </c>
-      <c r="CL30">
+        <v>2086</v>
+      </c>
+      <c r="CL30" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="CM30">
+        <v/>
+      </c>
+      <c r="CM30" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="CN30" t="str">
         <f t="shared" si="16"/>
@@ -15274,70 +15199,70 @@
         <v>73</v>
       </c>
       <c r="B31">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="C31">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="D31">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s">
         <v>73</v>
       </c>
       <c r="N31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O31">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="P31">
         <v>2064</v>
       </c>
       <c r="Q31">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="R31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Y31" t="s">
         <v>73</v>
       </c>
       <c r="Z31">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AA31">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="AB31">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="AD31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AE31" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s">
         <v>73</v>
@@ -15346,7 +15271,7 @@
         <v>2053</v>
       </c>
       <c r="AM31">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AN31">
         <v>2079</v>
@@ -15355,10 +15280,10 @@
         <v>85</v>
       </c>
       <c r="AQ31" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="AR31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW31" t="s">
         <v>73</v>
@@ -15367,7 +15292,7 @@
         <v>2057</v>
       </c>
       <c r="AY31">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AZ31">
         <v>2089</v>
@@ -15376,59 +15301,59 @@
         <v>27</v>
       </c>
       <c r="BC31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BD31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BI31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BJ31">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="BK31">
         <f t="shared" si="4"/>
-        <v>2012</v>
-      </c>
-      <c r="BK31">
+        <v>1</v>
+      </c>
+      <c r="BL31">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BL31">
+        <v>37</v>
+      </c>
+      <c r="BM31">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="BM31">
+        <v>2</v>
+      </c>
+      <c r="BN31">
         <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS31">
+        <f t="shared" si="8"/>
+        <v>2051</v>
+      </c>
+      <c r="BT31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BU31">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="BN31">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>154</v>
-      </c>
-      <c r="BS31">
-        <f t="shared" si="9"/>
-        <v>2050</v>
-      </c>
-      <c r="BT31">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU31">
+      <c r="BV31">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="BV31">
+        <v>5</v>
+      </c>
+      <c r="BW31" t="str">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BW31">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="CA31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CB31">
         <f t="shared" si="18"/>
@@ -15436,26 +15361,26 @@
       </c>
       <c r="CC31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE31">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CF31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="CJ31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CK31">
         <f t="shared" si="19"/>
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="CL31" t="str">
         <f t="shared" si="14"/>
@@ -15479,82 +15404,82 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="C32">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D32">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="E32">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
         <v>75</v>
       </c>
       <c r="N32">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="O32">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P32">
         <v>2049</v>
       </c>
       <c r="Q32">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="R32" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s">
         <v>23</v>
       </c>
       <c r="U32" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="s">
         <v>75</v>
       </c>
       <c r="Z32">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="AA32">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="AB32">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="AC32">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="AD32" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AE32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AF32" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s">
         <v>75</v>
@@ -15569,19 +15494,19 @@
         <v>2059</v>
       </c>
       <c r="AO32">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="AP32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AQ32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AR32" t="s">
         <v>67</v>
       </c>
       <c r="AS32" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AW32" t="s">
         <v>75</v>
@@ -15590,7 +15515,7 @@
         <v>2042</v>
       </c>
       <c r="AY32">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="AZ32">
         <v>2064</v>
@@ -15602,62 +15527,62 @@
         <v>55</v>
       </c>
       <c r="BC32" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="BD32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE32" t="s">
         <v>63</v>
       </c>
       <c r="BI32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BJ32">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="BK32">
         <f t="shared" si="4"/>
-        <v>2011</v>
-      </c>
-      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BL32">
+        <v>19</v>
+      </c>
+      <c r="BM32">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="BN32">
+        <v>5</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS32">
         <f t="shared" si="8"/>
+        <v>2035</v>
+      </c>
+      <c r="BT32">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="BR32" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS32">
-        <f t="shared" si="9"/>
-        <v>2034</v>
-      </c>
-      <c r="BT32">
+      <c r="BU32">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="BU32">
+        <v>2</v>
+      </c>
+      <c r="BV32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="BV32">
+      <c r="BW32" t="str">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="BW32">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="CA32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="CB32">
         <f t="shared" si="18"/>
@@ -15665,26 +15590,26 @@
       </c>
       <c r="CC32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD32">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="CJ32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="CK32">
         <f t="shared" si="19"/>
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="CL32">
         <f t="shared" si="14"/>
@@ -15696,11 +15621,11 @@
       </c>
       <c r="CN32">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CO32">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:93" x14ac:dyDescent="0.2">
@@ -15708,37 +15633,37 @@
         <v>78</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C33">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="D33">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="E33">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M33" t="s">
         <v>78</v>
       </c>
       <c r="N33">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O33">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="P33">
         <v>2044</v>
@@ -15747,13 +15672,13 @@
         <v>2062</v>
       </c>
       <c r="R33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S33" t="s">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s">
         <v>104</v>
-      </c>
-      <c r="T33" t="s">
-        <v>106</v>
       </c>
       <c r="U33" t="s">
         <v>60</v>
@@ -15762,28 +15687,28 @@
         <v>78</v>
       </c>
       <c r="Z33">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AA33">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="AB33">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="AC33">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="AD33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AE33" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AF33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AG33" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="AK33" t="s">
         <v>78</v>
@@ -15792,25 +15717,25 @@
         <v>2025</v>
       </c>
       <c r="AM33">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AN33">
         <v>2059</v>
       </c>
       <c r="AO33">
-        <v>2067</v>
+        <v>2074</v>
       </c>
       <c r="AP33" t="s">
         <v>44</v>
       </c>
       <c r="AQ33" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="AR33" t="s">
         <v>67</v>
       </c>
       <c r="AS33" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AW33" t="s">
         <v>78</v>
@@ -15825,68 +15750,68 @@
         <v>2062</v>
       </c>
       <c r="BA33">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BB33" t="s">
         <v>31</v>
       </c>
       <c r="BC33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BD33" t="s">
         <v>60</v>
       </c>
       <c r="BE33" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="BI33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BJ33">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="BK33">
         <f t="shared" si="4"/>
-        <v>2012</v>
-      </c>
-      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
         <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BM33">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BN33">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>154</v>
+      </c>
+      <c r="BS33">
+        <f t="shared" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="BT33">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="BL33">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="BM33">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BN33">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>156</v>
-      </c>
-      <c r="BS33">
-        <f t="shared" si="9"/>
-        <v>2019</v>
-      </c>
-      <c r="BT33">
+      <c r="BU33">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BU33">
+        <v>8</v>
+      </c>
+      <c r="BV33">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="BV33">
+        <v>11</v>
+      </c>
+      <c r="BW33" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="BW33">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="CA33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CB33">
         <f t="shared" si="18"/>
@@ -15894,22 +15819,22 @@
       </c>
       <c r="CC33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CF33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="CJ33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CK33">
         <f t="shared" si="19"/>
@@ -15917,19 +15842,19 @@
       </c>
       <c r="CL33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM33">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN33">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CO33">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.2">
@@ -15937,28 +15862,28 @@
         <v>81</v>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C34">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="D34">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E34">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M34" t="s">
         <v>81</v>
@@ -15967,7 +15892,7 @@
         <v>2012</v>
       </c>
       <c r="O34">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="P34">
         <v>2047</v>
@@ -15979,7 +15904,7 @@
         <v>95</v>
       </c>
       <c r="S34" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s">
         <v>96</v>
@@ -15991,25 +15916,25 @@
         <v>81</v>
       </c>
       <c r="Z34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AA34">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="AB34">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="AC34">
         <v>2066</v>
       </c>
       <c r="AD34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AE34" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="AG34" t="s">
         <v>57</v>
@@ -16021,25 +15946,25 @@
         <v>2025</v>
       </c>
       <c r="AM34">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AN34">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="AO34">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="AP34" t="s">
         <v>44</v>
       </c>
       <c r="AQ34" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="AR34" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AS34" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="AW34" t="s">
         <v>81</v>
@@ -16054,7 +15979,7 @@
         <v>2065</v>
       </c>
       <c r="BA34">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BB34" t="s">
         <v>89</v>
@@ -16066,56 +15991,56 @@
         <v>35</v>
       </c>
       <c r="BE34" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="BI34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BJ34">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="BK34">
         <f t="shared" si="4"/>
-        <v>2012</v>
-      </c>
-      <c r="BK34">
+        <v>3</v>
+      </c>
+      <c r="BL34">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL34">
+        <v>4</v>
+      </c>
+      <c r="BM34">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="BM34">
+        <v>6</v>
+      </c>
+      <c r="BN34">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="BN34">
+        <v>8</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS34">
         <f t="shared" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="BT34">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BU34">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="BR34" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS34">
-        <f t="shared" si="9"/>
-        <v>2017</v>
-      </c>
-      <c r="BT34">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="BU34">
+      <c r="BV34">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="BV34">
+        <v>10</v>
+      </c>
+      <c r="BW34">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="BW34">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CB34">
         <f t="shared" si="18"/>
@@ -16123,7 +16048,7 @@
       </c>
       <c r="CC34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD34">
         <f t="shared" si="1"/>
@@ -16131,14 +16056,14 @@
       </c>
       <c r="CE34">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="CF34">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="CF34">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
       <c r="CJ34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CK34">
         <f t="shared" si="19"/>
@@ -16148,17 +16073,17 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="CM34" t="str">
+      <c r="CM34">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="CN34">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CO34">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.2">
@@ -16166,82 +16091,82 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>2035</v>
+        <v>2044</v>
       </c>
       <c r="C35">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="D35">
         <v>2076</v>
       </c>
       <c r="E35">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
         <v>83</v>
       </c>
       <c r="N35">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="O35">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="P35">
         <v>2063</v>
       </c>
       <c r="Q35">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="R35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="T35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U35" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="Y35" t="s">
         <v>83</v>
       </c>
       <c r="Z35">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="AA35">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AB35">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="AC35">
         <v>2089</v>
       </c>
       <c r="AD35" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="AE35" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AG35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AK35" t="s">
         <v>83</v>
@@ -16250,16 +16175,16 @@
         <v>2048</v>
       </c>
       <c r="AM35">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AN35">
         <v>2080</v>
       </c>
       <c r="AP35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AQ35" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="s">
         <v>61</v>
@@ -16280,59 +16205,59 @@
         <v>74</v>
       </c>
       <c r="BC35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BD35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BI35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BJ35">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="BK35">
         <f t="shared" si="4"/>
-        <v>2018</v>
-      </c>
-      <c r="BK35">
+        <v>9</v>
+      </c>
+      <c r="BL35">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BL35">
+        <v>11</v>
+      </c>
+      <c r="BM35">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BN35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS35">
+        <f t="shared" si="8"/>
+        <v>2046</v>
+      </c>
+      <c r="BT35">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BU35">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BV35">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="BM35">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="BN35">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>158</v>
-      </c>
-      <c r="BS35">
-        <f t="shared" si="9"/>
-        <v>2042</v>
-      </c>
-      <c r="BT35">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="BU35">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="BV35">
+      <c r="BW35">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="BW35">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CB35">
         <f t="shared" si="18"/>
@@ -16340,34 +16265,34 @@
       </c>
       <c r="CC35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CD35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE35">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CF35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="CJ35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CK35">
         <f t="shared" si="19"/>
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="CL35">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM35">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN35" t="str">
         <f t="shared" si="16"/>
@@ -16383,64 +16308,64 @@
         <v>86</v>
       </c>
       <c r="B36">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="C36">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="D36">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="E36">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="M36" t="s">
         <v>86</v>
       </c>
       <c r="N36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="O36">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="P36">
         <v>2060</v>
       </c>
       <c r="Q36">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="R36" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U36" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="Y36" t="s">
         <v>86</v>
       </c>
       <c r="Z36">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="AA36">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="AB36">
         <v>2062</v>
@@ -16449,10 +16374,10 @@
         <v>2077</v>
       </c>
       <c r="AD36" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="AE36" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="s">
         <v>60</v>
@@ -16467,25 +16392,25 @@
         <v>2044</v>
       </c>
       <c r="AM36">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="AN36">
         <v>2074</v>
       </c>
       <c r="AO36">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="AP36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ36" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AR36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AS36" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="AW36" t="s">
         <v>86</v>
@@ -16500,68 +16425,68 @@
         <v>2076</v>
       </c>
       <c r="BA36">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="BB36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BC36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BD36" t="s">
         <v>21</v>
       </c>
       <c r="BE36" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BI36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BJ36">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="BK36">
         <f t="shared" si="4"/>
-        <v>2020</v>
-      </c>
-      <c r="BK36">
+        <v>11</v>
+      </c>
+      <c r="BL36">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="BL36">
+      <c r="BM36">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="BM36">
+        <v>6</v>
+      </c>
+      <c r="BN36">
         <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS36">
+        <f t="shared" si="8"/>
+        <v>2038</v>
+      </c>
+      <c r="BT36">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BU36">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BV36">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="BN36">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>159</v>
-      </c>
-      <c r="BS36">
-        <f t="shared" si="9"/>
-        <v>2036</v>
-      </c>
-      <c r="BT36">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="BU36">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="BV36">
+      <c r="BW36">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="BW36">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CA36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CB36">
         <f t="shared" si="18"/>
@@ -16573,38 +16498,38 @@
       </c>
       <c r="CD36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="CF36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="CJ36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CK36">
-        <f t="shared" ref="CK36" si="20">Q36</f>
-        <v>2076</v>
-      </c>
-      <c r="CL36">
+        <f t="shared" si="19"/>
+        <v>2077</v>
+      </c>
+      <c r="CL36" t="str">
         <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="CM36">
+        <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="CM36" t="str">
-        <f t="shared" si="15"/>
-        <v/>
       </c>
       <c r="CN36">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CO36">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
